--- a/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.509874005601489</v>
+        <v>2.334788399064735</v>
       </c>
       <c r="C2">
-        <v>1.105493545964862</v>
+        <v>0.5216523091288252</v>
       </c>
       <c r="D2">
-        <v>0.04336585985395658</v>
+        <v>0.04137034842977982</v>
       </c>
       <c r="E2">
-        <v>0.173703713693115</v>
+        <v>0.1170259230457908</v>
       </c>
       <c r="F2">
-        <v>2.528896549905312</v>
+        <v>2.465097153698281</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.336350052405351</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2252125557995583</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6386777858825212</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.067084129388988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.665386853616468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.161564942372365</v>
+        <v>2.019970891910191</v>
       </c>
       <c r="C3">
-        <v>0.9498033097962377</v>
+        <v>0.4499895106054339</v>
       </c>
       <c r="D3">
-        <v>0.04168773766912892</v>
+        <v>0.03647604011216998</v>
       </c>
       <c r="E3">
-        <v>0.1508314843462202</v>
+        <v>0.1039645247940868</v>
       </c>
       <c r="F3">
-        <v>2.233464669090651</v>
+        <v>2.26066694819059</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.203800817430349</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2006449310577949</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5518569011985193</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9169352325191369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.531448512267019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.950918628924683</v>
+        <v>1.829485856795145</v>
       </c>
       <c r="C4">
-        <v>0.8559658127323928</v>
+        <v>0.4065487874752591</v>
       </c>
       <c r="D4">
-        <v>0.04077442167875489</v>
+        <v>0.03349528198776852</v>
       </c>
       <c r="E4">
-        <v>0.137230311579458</v>
+        <v>0.09612762307449074</v>
       </c>
       <c r="F4">
-        <v>2.057931843435838</v>
+        <v>2.140275060910383</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.12559605367916</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.185986383118852</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4992982911117636</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8266082537000656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.452801676238764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.865753341874182</v>
+        <v>1.752470840945819</v>
       </c>
       <c r="C5">
-        <v>0.8180960008664329</v>
+        <v>0.3889645388715053</v>
       </c>
       <c r="D5">
-        <v>0.04042836860309151</v>
+        <v>0.03228607196308531</v>
       </c>
       <c r="E5">
-        <v>0.1317839861913086</v>
+        <v>0.092975187656684</v>
       </c>
       <c r="F5">
-        <v>1.987695562552773</v>
+        <v>2.092383136574128</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.094435008677564</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1801087041687666</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4780415461603624</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7901970967170726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.421570812041352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.851648796904584</v>
+        <v>1.73971662973122</v>
       </c>
       <c r="C6">
-        <v>0.8118281078698715</v>
+        <v>0.3860511999720018</v>
       </c>
       <c r="D6">
-        <v>0.04037239488159372</v>
+        <v>0.03208559631468688</v>
       </c>
       <c r="E6">
-        <v>0.1308850321636754</v>
+        <v>0.09245408140734312</v>
       </c>
       <c r="F6">
-        <v>1.976106152801179</v>
+        <v>2.08449795767271</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.089300982606375</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1791381923916475</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4745208716057761</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7841731327170365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.416432028395079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.949767495468137</v>
+        <v>1.828444862839689</v>
       </c>
       <c r="C7">
-        <v>0.8554536801805739</v>
+        <v>0.4063111901630236</v>
       </c>
       <c r="D7">
-        <v>0.04076965300045288</v>
+        <v>0.03347895281243041</v>
       </c>
       <c r="E7">
-        <v>0.1371564894874666</v>
+        <v>0.0960849476168697</v>
       </c>
       <c r="F7">
-        <v>2.056979594937317</v>
+        <v>2.139624594189982</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.125173053228565</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1859067411013768</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4990109963250333</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8261156782439585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.4523772794591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.389024239732464</v>
+        <v>2.225593172857998</v>
       </c>
       <c r="C8">
-        <v>1.051401120817275</v>
+        <v>0.4968122716821028</v>
       </c>
       <c r="D8">
-        <v>0.04276084507849021</v>
+        <v>0.03967731620114279</v>
       </c>
       <c r="E8">
-        <v>0.1657160039327579</v>
+        <v>0.1124813708906984</v>
       </c>
       <c r="F8">
-        <v>2.425700855639946</v>
+        <v>2.393468992689208</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.289928698301608</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2166460680699061</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.608569166686479</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.014880508734961</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.61840608245511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282807944349543</v>
+        <v>3.031688003861859</v>
       </c>
       <c r="C9">
-        <v>1.453294740184788</v>
+        <v>0.6798832801393644</v>
       </c>
       <c r="D9">
-        <v>0.04776465661261398</v>
+        <v>0.0520596570662093</v>
       </c>
       <c r="E9">
-        <v>0.2260024658760074</v>
+        <v>0.1463274237542969</v>
       </c>
       <c r="F9">
-        <v>3.204444789198135</v>
+        <v>2.938005199174739</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.642930838669542</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2808754380651663</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8307338092263308</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.403497353188286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1.976729560034329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.970315655343086</v>
+        <v>3.648364754349245</v>
       </c>
       <c r="C10">
-        <v>1.7653035441665</v>
+        <v>0.819620195854867</v>
       </c>
       <c r="D10">
-        <v>0.05238828446825039</v>
+        <v>0.06135044538012835</v>
       </c>
       <c r="E10">
-        <v>0.2741529747255314</v>
+        <v>0.1726059564129585</v>
       </c>
       <c r="F10">
-        <v>3.825227295450702</v>
+        <v>3.376044472504191</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.928016788253885</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3313654708697555</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.000583980544263</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.70615900407293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.266587973710159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.292764294525512</v>
+        <v>3.936236161332602</v>
       </c>
       <c r="C11">
-        <v>1.912498019513009</v>
+        <v>0.8848025884185233</v>
       </c>
       <c r="D11">
-        <v>0.05477358007750155</v>
+        <v>0.06563346967704575</v>
       </c>
       <c r="E11">
-        <v>0.2972349939240644</v>
+        <v>0.184965643037188</v>
       </c>
       <c r="F11">
-        <v>4.122142674927915</v>
+        <v>3.586013421318</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.065309193548615</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3552828408164288</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.079853507448419</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.849164779263276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.405945081389916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.416560795750627</v>
+        <v>4.046496399337684</v>
       </c>
       <c r="C12">
-        <v>1.969156266817777</v>
+        <v>0.9097639567442286</v>
       </c>
       <c r="D12">
-        <v>0.05572518617384503</v>
+        <v>0.06726485620466605</v>
       </c>
       <c r="E12">
-        <v>0.3061793581378112</v>
+        <v>0.1897137198501611</v>
       </c>
       <c r="F12">
-        <v>4.237059642038275</v>
+        <v>3.667299042631441</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.118593441624157</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3644986076696597</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.110213210273159</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.904243348056838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.459960545169494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.389818456712533</v>
+        <v>4.022690935819867</v>
       </c>
       <c r="C13">
-        <v>1.956910137616717</v>
+        <v>0.9043749040050955</v>
       </c>
       <c r="D13">
-        <v>0.05551795068225829</v>
+        <v>0.06691306183767409</v>
       </c>
       <c r="E13">
-        <v>0.304243357200555</v>
+        <v>0.1886879601643088</v>
       </c>
       <c r="F13">
-        <v>4.212192858232612</v>
+        <v>3.649709683763575</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.107056581341595</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3625063776575814</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.10365855323181</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.89233719010403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.44826914111681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.302913307287099</v>
+        <v>3.945281088845661</v>
       </c>
       <c r="C14">
-        <v>1.917139879595197</v>
+        <v>0.8868503129979786</v>
       </c>
       <c r="D14">
-        <v>0.05485085049597416</v>
+        <v>0.06576748601879245</v>
       </c>
       <c r="E14">
-        <v>0.2979665513076455</v>
+        <v>0.1853548541299688</v>
       </c>
       <c r="F14">
-        <v>4.13154473510636</v>
+        <v>3.592663799186369</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.069665702818511</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.356037706719718</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.082344027765728</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.85367656520279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.41036300562601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.24991146076303</v>
+        <v>3.898034259096505</v>
       </c>
       <c r="C15">
-        <v>1.89290441881468</v>
+        <v>0.8761537005864</v>
       </c>
       <c r="D15">
-        <v>0.05444878455141833</v>
+        <v>0.06506706821234332</v>
       </c>
       <c r="E15">
-        <v>0.2941494764177222</v>
+        <v>0.1833223527987329</v>
       </c>
       <c r="F15">
-        <v>4.082481421389843</v>
+        <v>3.557960247774332</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.046937844277863</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3520968502389934</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.069334537720238</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.830121544635233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.38731170388732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.949462357641266</v>
+        <v>3.629715400119608</v>
       </c>
       <c r="C16">
-        <v>1.755803154385092</v>
+        <v>0.8153966592002746</v>
       </c>
       <c r="D16">
-        <v>0.05223870875209258</v>
+        <v>0.0610717906350331</v>
       </c>
       <c r="E16">
-        <v>0.2726710143211548</v>
+        <v>0.171807158025608</v>
       </c>
       <c r="F16">
-        <v>3.806147526905363</v>
+        <v>3.362557323883692</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.919213878583491</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.329823351649182</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.9954482953626353</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.696933419292023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.257645211362757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.767827179207757</v>
+        <v>3.467120842452744</v>
       </c>
       <c r="C17">
-        <v>1.673150416385113</v>
+        <v>0.7785686225237782</v>
       </c>
       <c r="D17">
-        <v>0.05096023999009702</v>
+        <v>0.05863622421195913</v>
       </c>
       <c r="E17">
-        <v>0.259819001840718</v>
+        <v>0.1648531261657524</v>
       </c>
       <c r="F17">
-        <v>3.640604567464607</v>
+        <v>3.245583308363194</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.842940179826002</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3164173251606144</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9506708158124297</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.616695799393511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.180130692501052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.664247792534525</v>
+        <v>3.374278791564734</v>
       </c>
       <c r="C18">
-        <v>1.626094656658154</v>
+        <v>0.7575350558014691</v>
       </c>
       <c r="D18">
-        <v>0.05025089884228606</v>
+        <v>0.057240586515654</v>
       </c>
       <c r="E18">
-        <v>0.2525353844479881</v>
+        <v>0.1608908803305056</v>
       </c>
       <c r="F18">
-        <v>3.546728132412682</v>
+        <v>3.179294482217983</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.799771627943784</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3087943776043005</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.925100975960305</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.571035302282823</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.136241106781483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.629322569598685</v>
+        <v>3.342955032801115</v>
       </c>
       <c r="C19">
-        <v>1.610240983255721</v>
+        <v>0.7504377362242565</v>
       </c>
       <c r="D19">
-        <v>0.05001497847555214</v>
+        <v>0.05676890831572479</v>
       </c>
       <c r="E19">
-        <v>0.2500869647307553</v>
+        <v>0.159555510500752</v>
       </c>
       <c r="F19">
-        <v>3.515162273244954</v>
+        <v>3.157013838673549</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.785270479626334</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3062278349815699</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9164737126930333</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.555655168252486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.121495475106926</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.787068197332985</v>
+        <v>3.484357814842099</v>
       </c>
       <c r="C20">
-        <v>1.68189776871435</v>
+        <v>0.7824733022010832</v>
       </c>
       <c r="D20">
-        <v>0.05109359221737009</v>
+        <v>0.05889494327302458</v>
       </c>
       <c r="E20">
-        <v>0.2611756594640013</v>
+        <v>0.16558944626955</v>
       </c>
       <c r="F20">
-        <v>3.658085617136834</v>
+        <v>3.257931163316897</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.850985633242928</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3178351761265219</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9554179426790768</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.625185438948648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.188309215913421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.328390906232698</v>
+        <v>3.96798264697054</v>
       </c>
       <c r="C21">
-        <v>1.928794993683596</v>
+        <v>0.8919897609812608</v>
       </c>
       <c r="D21">
-        <v>0.05504541250392947</v>
+        <v>0.06610369986548648</v>
       </c>
       <c r="E21">
-        <v>0.2998043690656829</v>
+        <v>0.1863319484014738</v>
       </c>
       <c r="F21">
-        <v>4.155162224603146</v>
+        <v>3.609369345905833</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.080611404705479</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3579332100635497</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.088594870527501</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.865005600708884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.421461762868219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.692216904421457</v>
+        <v>4.2914529910704</v>
       </c>
       <c r="C22">
-        <v>2.095609762841605</v>
+        <v>0.9652129923570669</v>
       </c>
       <c r="D22">
-        <v>0.05791469210056022</v>
+        <v>0.07087117234355844</v>
       </c>
       <c r="E22">
-        <v>0.3262584255828145</v>
+        <v>0.2002885117311166</v>
       </c>
       <c r="F22">
-        <v>4.494728723779616</v>
+        <v>3.849534131636517</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.238350272888454</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3850777410002877</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.177658100201683</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.027231279217361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.581185197619646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.497005290330719</v>
+        <v>4.118063049786656</v>
       </c>
       <c r="C23">
-        <v>2.006017192520346</v>
+        <v>0.9259646478068078</v>
       </c>
       <c r="D23">
-        <v>0.05635411171701321</v>
+        <v>0.06832104706605691</v>
       </c>
       <c r="E23">
-        <v>0.3120158660651668</v>
+        <v>0.1927995558212672</v>
       </c>
       <c r="F23">
-        <v>4.312002517142446</v>
+        <v>3.720308094605969</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.153385053519173</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3704961585357864</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.129918315740639</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.940085705092059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.495204878530259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.778366722539658</v>
+        <v>3.476563013778446</v>
       </c>
       <c r="C24">
-        <v>1.677941662329602</v>
+        <v>0.7807075658200802</v>
       </c>
       <c r="D24">
-        <v>0.05103322429582846</v>
+        <v>0.05877796215185782</v>
       </c>
       <c r="E24">
-        <v>0.2605619894570594</v>
+        <v>0.1652564453872074</v>
       </c>
       <c r="F24">
-        <v>3.650178425386827</v>
+        <v>3.252345721912434</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.847346173539336</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3171939045990229</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9532712307154014</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.62134582320536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.184609616647435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.036495339458497</v>
+        <v>2.809945941644798</v>
       </c>
       <c r="C25">
-        <v>1.342117218692977</v>
+        <v>0.6295836655393146</v>
       </c>
       <c r="D25">
-        <v>0.04626725468929038</v>
+        <v>0.04868031525349892</v>
       </c>
       <c r="E25">
-        <v>0.2091171831629595</v>
+        <v>0.136953385893456</v>
       </c>
       <c r="F25">
-        <v>2.986417772131688</v>
+        <v>2.784777202560349</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.543519709002169</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2629909552912721</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7696407118002497</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.295832845895291</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.875649301285065</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.334788399064735</v>
+        <v>2.611485503766801</v>
       </c>
       <c r="C2">
-        <v>0.5216523091288252</v>
+        <v>0.4006947181122484</v>
       </c>
       <c r="D2">
-        <v>0.04137034842977982</v>
+        <v>0.03892160226453711</v>
       </c>
       <c r="E2">
-        <v>0.1170259230457908</v>
+        <v>0.03801268009689984</v>
       </c>
       <c r="F2">
-        <v>2.465097153698281</v>
+        <v>0.5670457206655328</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2747450192646888</v>
       </c>
       <c r="J2">
-        <v>0.2252125557995583</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6386777858825212</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3191236248557203</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6896262412726699</v>
       </c>
       <c r="O2">
-        <v>1.665386853616468</v>
+        <v>1.615864133733879</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.019970891910191</v>
+        <v>2.270109747873846</v>
       </c>
       <c r="C3">
-        <v>0.4499895106054339</v>
+        <v>0.3602160953514613</v>
       </c>
       <c r="D3">
-        <v>0.03647604011216998</v>
+        <v>0.03507087701395761</v>
       </c>
       <c r="E3">
-        <v>0.1039645247940868</v>
+        <v>0.03749391814335645</v>
       </c>
       <c r="F3">
-        <v>2.26066694819059</v>
+        <v>0.5180952074261356</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2703751783946622</v>
       </c>
       <c r="J3">
-        <v>0.2006449310577949</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5518569011985193</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2802626242604731</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.7042024856920577</v>
       </c>
       <c r="O3">
-        <v>1.531448512267019</v>
+        <v>1.501415875004312</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.829485856795145</v>
+        <v>2.060878189849348</v>
       </c>
       <c r="C4">
-        <v>0.4065487874752591</v>
+        <v>0.3353133980432119</v>
       </c>
       <c r="D4">
-        <v>0.03349528198776852</v>
+        <v>0.0326989690983055</v>
       </c>
       <c r="E4">
-        <v>0.09612762307449074</v>
+        <v>0.03724969136274758</v>
       </c>
       <c r="F4">
-        <v>2.140275060910383</v>
+        <v>0.4891564558907504</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2684708348351528</v>
       </c>
       <c r="J4">
-        <v>0.185986383118852</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4992982911117636</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2566638112494388</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.7140960494859314</v>
       </c>
       <c r="O4">
-        <v>1.452801676238764</v>
+        <v>1.434771113408175</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.752470840945819</v>
+        <v>1.975680737643927</v>
       </c>
       <c r="C5">
-        <v>0.3889645388715053</v>
+        <v>0.3251505393864136</v>
       </c>
       <c r="D5">
-        <v>0.03228607196308531</v>
+        <v>0.03173035351934317</v>
       </c>
       <c r="E5">
-        <v>0.092975187656684</v>
+        <v>0.03716812663038382</v>
       </c>
       <c r="F5">
-        <v>2.092383136574128</v>
+        <v>0.4776257702042699</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2678807655608502</v>
       </c>
       <c r="J5">
-        <v>0.1801087041687666</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4780415461603624</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2471065917840178</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7183575732653225</v>
       </c>
       <c r="O5">
-        <v>1.421570812041352</v>
+        <v>1.408467425480978</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.73971662973122</v>
+        <v>1.96153697024215</v>
       </c>
       <c r="C6">
-        <v>0.3860511999720018</v>
+        <v>0.3234620384072855</v>
       </c>
       <c r="D6">
-        <v>0.03208559631468688</v>
+        <v>0.03156938813083343</v>
       </c>
       <c r="E6">
-        <v>0.09245408140734312</v>
+        <v>0.03715564706706154</v>
       </c>
       <c r="F6">
-        <v>2.08449795767271</v>
+        <v>0.4757264060694837</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2677937375688622</v>
       </c>
       <c r="J6">
-        <v>0.1791381923916475</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4745208716057761</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.24552303517045</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.7190788651296174</v>
       </c>
       <c r="O6">
-        <v>1.416432028395079</v>
+        <v>1.404149708608628</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.828444862839689</v>
+        <v>2.059728955426579</v>
       </c>
       <c r="C7">
-        <v>0.4063111901630236</v>
+        <v>0.3351764014009859</v>
       </c>
       <c r="D7">
-        <v>0.03347895281243041</v>
+        <v>0.03268591447083224</v>
       </c>
       <c r="E7">
-        <v>0.0960849476168697</v>
+        <v>0.03724851956564201</v>
       </c>
       <c r="F7">
-        <v>2.139624594189982</v>
+        <v>0.4889999120125452</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2684621366690614</v>
       </c>
       <c r="J7">
-        <v>0.1859067411013768</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4990109963250333</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2565346865865905</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.714152600963736</v>
       </c>
       <c r="O7">
-        <v>1.4523772794591</v>
+        <v>1.434412986271241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.225593172857998</v>
+        <v>2.493683880145966</v>
       </c>
       <c r="C8">
-        <v>0.4968122716821028</v>
+        <v>0.3867461724505574</v>
       </c>
       <c r="D8">
-        <v>0.03967731620114279</v>
+        <v>0.03759534629924133</v>
       </c>
       <c r="E8">
-        <v>0.1124813708906984</v>
+        <v>0.03781794598233645</v>
       </c>
       <c r="F8">
-        <v>2.393468992689208</v>
+        <v>0.5499241150505227</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2730705841931496</v>
       </c>
       <c r="J8">
-        <v>0.2166460680699061</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.608569166686479</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3056660105726507</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.6944516418689091</v>
       </c>
       <c r="O8">
-        <v>1.61840608245511</v>
+        <v>1.575614108600831</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.031688003861859</v>
+        <v>3.349034056316896</v>
       </c>
       <c r="C9">
-        <v>0.6798832801393644</v>
+        <v>0.4876183789599509</v>
       </c>
       <c r="D9">
-        <v>0.0520596570662093</v>
+        <v>0.04717042251322567</v>
       </c>
       <c r="E9">
-        <v>0.1463274237542969</v>
+        <v>0.0395583829535191</v>
       </c>
       <c r="F9">
-        <v>2.938005199174739</v>
+        <v>0.6791609798561637</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2887562483724651</v>
       </c>
       <c r="J9">
-        <v>0.2808754380651663</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8307338092263308</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4044011700060395</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.663662698733205</v>
       </c>
       <c r="O9">
-        <v>1.976729560034329</v>
+        <v>1.884037763752673</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.648364754349245</v>
+        <v>3.982255934047885</v>
       </c>
       <c r="C10">
-        <v>0.819620195854867</v>
+        <v>0.5617759937890696</v>
       </c>
       <c r="D10">
-        <v>0.06135044538012835</v>
+        <v>0.05418536356485504</v>
       </c>
       <c r="E10">
-        <v>0.1726059564129585</v>
+        <v>0.04126770381498979</v>
       </c>
       <c r="F10">
-        <v>3.376044472504191</v>
+        <v>0.7814010477108582</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3050255834515241</v>
       </c>
       <c r="J10">
-        <v>0.3313654708697555</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.000583980544263</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4788626120195403</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6463501900286985</v>
       </c>
       <c r="O10">
-        <v>2.266587973710159</v>
+        <v>2.133935494298271</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.936236161332602</v>
+        <v>4.271883178816438</v>
       </c>
       <c r="C11">
-        <v>0.8848025884185233</v>
+        <v>0.5955722511930901</v>
       </c>
       <c r="D11">
-        <v>0.06563346967704575</v>
+        <v>0.05737526724733755</v>
       </c>
       <c r="E11">
-        <v>0.184965643037188</v>
+        <v>0.04215069913066394</v>
       </c>
       <c r="F11">
-        <v>3.586013421318</v>
+        <v>0.8298144906234057</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3136218716422761</v>
       </c>
       <c r="J11">
-        <v>0.3552828408164288</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.079853507448419</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5132652932494608</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.6397521579152752</v>
       </c>
       <c r="O11">
-        <v>2.405945081389916</v>
+        <v>2.253653379552418</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.046496399337684</v>
+        <v>4.3818289148453</v>
       </c>
       <c r="C12">
-        <v>0.9097639567442286</v>
+        <v>0.6083832829694131</v>
       </c>
       <c r="D12">
-        <v>0.06726485620466605</v>
+        <v>0.05858327533031371</v>
       </c>
       <c r="E12">
-        <v>0.1897137198501611</v>
+        <v>0.0425012811349319</v>
       </c>
       <c r="F12">
-        <v>3.667299042631441</v>
+        <v>0.8484496997639894</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3170637208898199</v>
       </c>
       <c r="J12">
-        <v>0.3644986076696597</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.110213210273159</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5263787404405633</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.6374486530304821</v>
       </c>
       <c r="O12">
-        <v>2.459960545169494</v>
+        <v>2.299943035927015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.022690935819867</v>
+        <v>4.358137374576586</v>
       </c>
       <c r="C13">
-        <v>0.9043749040050955</v>
+        <v>0.6056235423084786</v>
       </c>
       <c r="D13">
-        <v>0.06691306183767409</v>
+        <v>0.0583231024755122</v>
       </c>
       <c r="E13">
-        <v>0.1886879601643088</v>
+        <v>0.04242503855421553</v>
       </c>
       <c r="F13">
-        <v>3.649709683763575</v>
+        <v>0.8444223655195486</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.3163139109525233</v>
       </c>
       <c r="J13">
-        <v>0.3625063776575814</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.10365855323181</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5235505421282625</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.6379358914708178</v>
       </c>
       <c r="O13">
-        <v>2.44826914111681</v>
+        <v>2.289929800747217</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.945281088845661</v>
+        <v>4.280922799819621</v>
       </c>
       <c r="C14">
-        <v>0.8868503129979786</v>
+        <v>0.5966259336643134</v>
       </c>
       <c r="D14">
-        <v>0.06576748601879245</v>
+        <v>0.05747464814933778</v>
       </c>
       <c r="E14">
-        <v>0.1853548541299688</v>
+        <v>0.04217921056172358</v>
       </c>
       <c r="F14">
-        <v>3.592663799186369</v>
+        <v>0.8313413966299379</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3139012062699109</v>
       </c>
       <c r="J14">
-        <v>0.356037706719718</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.082344027765728</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5143423646778871</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.6395586709092314</v>
       </c>
       <c r="O14">
-        <v>2.41036300562601</v>
+        <v>2.257441995746262</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.898034259096505</v>
+        <v>4.233663202169566</v>
       </c>
       <c r="C15">
-        <v>0.8761537005864</v>
+        <v>0.5911164807667717</v>
       </c>
       <c r="D15">
-        <v>0.06506706821234332</v>
+        <v>0.05695496068140216</v>
       </c>
       <c r="E15">
-        <v>0.1833223527987329</v>
+        <v>0.04203077734643657</v>
       </c>
       <c r="F15">
-        <v>3.557960247774332</v>
+        <v>0.8233691418878095</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3124481141274345</v>
       </c>
       <c r="J15">
-        <v>0.3520968502389934</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.069334537720238</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5087135772868265</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6405784177945364</v>
       </c>
       <c r="O15">
-        <v>2.38731170388732</v>
+        <v>2.237669344448165</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.629715400119608</v>
+        <v>3.963363433227471</v>
       </c>
       <c r="C16">
-        <v>0.8153966592002746</v>
+        <v>0.5595689241499144</v>
       </c>
       <c r="D16">
-        <v>0.0610717906350331</v>
+        <v>0.05397689098364111</v>
       </c>
       <c r="E16">
-        <v>0.171807158025608</v>
+        <v>0.04121220763283695</v>
       </c>
       <c r="F16">
-        <v>3.362557323883692</v>
+        <v>0.7782778003935249</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3044890843858781</v>
       </c>
       <c r="J16">
-        <v>0.329823351649182</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9954482953626353</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4766257908954969</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.6468080439813662</v>
       </c>
       <c r="O16">
-        <v>2.257645211362757</v>
+        <v>2.126240428637061</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.467120842452744</v>
+        <v>3.797976123041963</v>
       </c>
       <c r="C17">
-        <v>0.7785686225237782</v>
+        <v>0.5402342098370809</v>
       </c>
       <c r="D17">
-        <v>0.05863622421195913</v>
+        <v>0.05214978980827567</v>
       </c>
       <c r="E17">
-        <v>0.1648531261657524</v>
+        <v>0.040737768692507</v>
       </c>
       <c r="F17">
-        <v>3.245583308363194</v>
+        <v>0.7511228662879006</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2999227821419979</v>
       </c>
       <c r="J17">
-        <v>0.3164173251606144</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9506708158124297</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.457083355740437</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.6509647334108308</v>
       </c>
       <c r="O17">
-        <v>2.180130692501052</v>
+        <v>2.059488703763634</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.374278791564734</v>
+        <v>3.702994777152412</v>
       </c>
       <c r="C18">
-        <v>0.7575350558014691</v>
+        <v>0.5291189128055862</v>
       </c>
       <c r="D18">
-        <v>0.057240586515654</v>
+        <v>0.05109875856102519</v>
       </c>
       <c r="E18">
-        <v>0.1608908803305056</v>
+        <v>0.04047473938083002</v>
       </c>
       <c r="F18">
-        <v>3.179294482217983</v>
+        <v>0.7356814604928843</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2974079295283474</v>
       </c>
       <c r="J18">
-        <v>0.3087943776043005</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.925100975960305</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.445892308208883</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.6534750742259874</v>
       </c>
       <c r="O18">
-        <v>2.136241106781483</v>
+        <v>2.021657655299691</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.342955032801115</v>
+        <v>3.670859349491479</v>
       </c>
       <c r="C19">
-        <v>0.7504377362242565</v>
+        <v>0.5253562883586369</v>
       </c>
       <c r="D19">
-        <v>0.05676890831572479</v>
+        <v>0.05074286803345984</v>
       </c>
       <c r="E19">
-        <v>0.159555510500752</v>
+        <v>0.04038734389709475</v>
       </c>
       <c r="F19">
-        <v>3.157013838673549</v>
+        <v>0.7304829039810272</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2965751725132364</v>
       </c>
       <c r="J19">
-        <v>0.3062278349815699</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9164737126930333</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4421113851415015</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.6543452282602189</v>
       </c>
       <c r="O19">
-        <v>2.121495475106926</v>
+        <v>2.008942827448436</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.484357814842099</v>
+        <v>3.815566562242509</v>
       </c>
       <c r="C20">
-        <v>0.7824733022010832</v>
+        <v>0.5422918222743078</v>
       </c>
       <c r="D20">
-        <v>0.05889494327302458</v>
+        <v>0.0523442997466077</v>
       </c>
       <c r="E20">
-        <v>0.16558944626955</v>
+        <v>0.04078724612496032</v>
       </c>
       <c r="F20">
-        <v>3.257931163316897</v>
+        <v>0.7539949972268829</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3003972229344498</v>
       </c>
       <c r="J20">
-        <v>0.3178351761265219</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9554179426790768</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4591585166359806</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6505097970045455</v>
       </c>
       <c r="O20">
-        <v>2.188309215913421</v>
+        <v>2.066535684774578</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.96798264697054</v>
+        <v>4.303594889303213</v>
       </c>
       <c r="C21">
-        <v>0.8919897609812608</v>
+        <v>0.5992683573458351</v>
       </c>
       <c r="D21">
-        <v>0.06610369986548648</v>
+        <v>0.05772385610974595</v>
       </c>
       <c r="E21">
-        <v>0.1863319484014738</v>
+        <v>0.0422509675171181</v>
       </c>
       <c r="F21">
-        <v>3.609369345905833</v>
+        <v>0.835175159742704</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3146046885254137</v>
       </c>
       <c r="J21">
-        <v>0.3579332100635497</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.088594870527501</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5170446173166425</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6390766341535397</v>
       </c>
       <c r="O21">
-        <v>2.421461762868219</v>
+        <v>2.266957806774968</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.2914529910704</v>
+        <v>4.624147590946393</v>
       </c>
       <c r="C22">
-        <v>0.9652129923570669</v>
+        <v>0.6365845717308503</v>
       </c>
       <c r="D22">
-        <v>0.07087117234355844</v>
+        <v>0.0612401864161356</v>
       </c>
       <c r="E22">
-        <v>0.2002885117311166</v>
+        <v>0.04330262208316071</v>
       </c>
       <c r="F22">
-        <v>3.849534131636517</v>
+        <v>0.8900065597102582</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3249854807555437</v>
       </c>
       <c r="J22">
-        <v>0.3850777410002877</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.177658100201683</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5553822538551998</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6327469941359141</v>
       </c>
       <c r="O22">
-        <v>2.581185197619646</v>
+        <v>2.403557283392132</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.118063049786656</v>
+        <v>4.452900811767847</v>
       </c>
       <c r="C23">
-        <v>0.9259646478068078</v>
+        <v>0.6166594866290893</v>
       </c>
       <c r="D23">
-        <v>0.06832104706605691</v>
+        <v>0.05936332713280734</v>
       </c>
       <c r="E23">
-        <v>0.1927995558212672</v>
+        <v>0.04273227329650986</v>
       </c>
       <c r="F23">
-        <v>3.720308094605969</v>
+        <v>0.8605696495339856</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3193396767007783</v>
       </c>
       <c r="J23">
-        <v>0.3704961585357864</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.129918315740639</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5348710597652513</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.6360167465118707</v>
       </c>
       <c r="O23">
-        <v>2.495204878530259</v>
+        <v>2.330107675865946</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.476563013778446</v>
+        <v>3.807613610203873</v>
       </c>
       <c r="C24">
-        <v>0.7807075658200802</v>
+        <v>0.5413615744896845</v>
       </c>
       <c r="D24">
-        <v>0.05877796215185782</v>
+        <v>0.05225636371028486</v>
       </c>
       <c r="E24">
-        <v>0.1652564453872074</v>
+        <v>0.04076484714365769</v>
       </c>
       <c r="F24">
-        <v>3.252345721912434</v>
+        <v>0.7526959784127598</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3001823855596939</v>
       </c>
       <c r="J24">
-        <v>0.3171939045990229</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9532712307154014</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.458220199576246</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6507150989442252</v>
       </c>
       <c r="O24">
-        <v>2.184609616647435</v>
+        <v>2.063348052325011</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.809945941644798</v>
+        <v>3.116960708677595</v>
       </c>
       <c r="C25">
-        <v>0.6295836655393146</v>
+        <v>0.4603372308878306</v>
       </c>
       <c r="D25">
-        <v>0.04868031525349892</v>
+        <v>0.04458452409151192</v>
       </c>
       <c r="E25">
-        <v>0.136953385893456</v>
+        <v>0.03901574835237653</v>
       </c>
       <c r="F25">
-        <v>2.784777202560349</v>
+        <v>0.6430208461302129</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2837323320781344</v>
       </c>
       <c r="J25">
-        <v>0.2629909552912721</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7696407118002497</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3773888719464082</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.6710999325979472</v>
       </c>
       <c r="O25">
-        <v>1.875649301285065</v>
+        <v>1.796820879969772</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.611485503766801</v>
+        <v>1.052410929767802</v>
       </c>
       <c r="C2">
-        <v>0.4006947181122484</v>
+        <v>0.1975470831521875</v>
       </c>
       <c r="D2">
-        <v>0.03892160226453711</v>
+        <v>0.02126524561209209</v>
       </c>
       <c r="E2">
-        <v>0.03801268009689984</v>
+        <v>0.08822327336754476</v>
       </c>
       <c r="F2">
-        <v>0.5670457206655328</v>
+        <v>0.6878680425175787</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2747450192646888</v>
+        <v>0.5845085108126327</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3191236248557203</v>
+        <v>0.220872605439709</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6896262412726699</v>
+        <v>1.079996518808514</v>
       </c>
       <c r="O2">
-        <v>1.615864133733879</v>
+        <v>2.325126003310601</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.270109747873846</v>
+        <v>0.9510981902345179</v>
       </c>
       <c r="C3">
-        <v>0.3602160953514613</v>
+        <v>0.1841607495851179</v>
       </c>
       <c r="D3">
-        <v>0.03507087701395761</v>
+        <v>0.01995137572605898</v>
       </c>
       <c r="E3">
-        <v>0.03749391814335645</v>
+        <v>0.08879252124508064</v>
       </c>
       <c r="F3">
-        <v>0.5180952074261356</v>
+        <v>0.6814553148613385</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2703751783946622</v>
+        <v>0.5892430574794965</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2802626242604731</v>
+        <v>0.211234034076071</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7042024856920577</v>
+        <v>1.087544628982975</v>
       </c>
       <c r="O3">
-        <v>1.501415875004312</v>
+        <v>2.317957044106976</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.060878189849348</v>
+        <v>0.8889802177097863</v>
       </c>
       <c r="C4">
-        <v>0.3353133980432119</v>
+        <v>0.1758770014104414</v>
       </c>
       <c r="D4">
-        <v>0.0326989690983055</v>
+        <v>0.01913838266573009</v>
       </c>
       <c r="E4">
-        <v>0.03724969136274758</v>
+        <v>0.08918658682360459</v>
       </c>
       <c r="F4">
-        <v>0.4891564558907504</v>
+        <v>0.6780108799843703</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2684708348351528</v>
+        <v>0.5925344515371762</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2566638112494388</v>
+        <v>0.2054272173411107</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7140960494859314</v>
+        <v>1.092619227828692</v>
       </c>
       <c r="O4">
-        <v>1.434771113408175</v>
+        <v>2.315197429004968</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.975680737643927</v>
+        <v>0.863690449485091</v>
       </c>
       <c r="C5">
-        <v>0.3251505393864136</v>
+        <v>0.1724852679513589</v>
       </c>
       <c r="D5">
-        <v>0.03173035351934317</v>
+        <v>0.01880552398137425</v>
       </c>
       <c r="E5">
-        <v>0.03716812663038382</v>
+        <v>0.08935837718386708</v>
       </c>
       <c r="F5">
-        <v>0.4776257702042699</v>
+        <v>0.6767311016908693</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2678807655608502</v>
+        <v>0.5939722641412644</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2471065917840178</v>
+        <v>0.203088963409698</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7183575732653225</v>
+        <v>1.094797927558623</v>
       </c>
       <c r="O5">
-        <v>1.408467425480978</v>
+        <v>2.314485336073773</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.96153697024215</v>
+        <v>0.8594925869730048</v>
       </c>
       <c r="C6">
-        <v>0.3234620384072855</v>
+        <v>0.1719211096941535</v>
       </c>
       <c r="D6">
-        <v>0.03156938813083343</v>
+        <v>0.01875015956515469</v>
       </c>
       <c r="E6">
-        <v>0.03715564706706154</v>
+        <v>0.08938757974779676</v>
       </c>
       <c r="F6">
-        <v>0.4757264060694837</v>
+        <v>0.6765260728177367</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2677937375688622</v>
+        <v>0.5942168396013123</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.24552303517045</v>
+        <v>0.2027023959845735</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7190788651296174</v>
+        <v>1.095166391931876</v>
       </c>
       <c r="O6">
-        <v>1.404149708608628</v>
+        <v>2.314391992456308</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.059728955426579</v>
+        <v>0.8886390525689194</v>
       </c>
       <c r="C7">
-        <v>0.3351764014009859</v>
+        <v>0.1758313240119094</v>
       </c>
       <c r="D7">
-        <v>0.03268591447083224</v>
+        <v>0.01913389989611858</v>
       </c>
       <c r="E7">
-        <v>0.03724851956564201</v>
+        <v>0.08918885827237411</v>
       </c>
       <c r="F7">
-        <v>0.4889999120125452</v>
+        <v>0.6779931191065103</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2684621366690614</v>
+        <v>0.5925534516275022</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2565346865865905</v>
+        <v>0.2053955690619063</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.714152600963736</v>
+        <v>1.092648161925439</v>
       </c>
       <c r="O7">
-        <v>1.434412986271241</v>
+        <v>2.315186155999982</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.493683880145966</v>
+        <v>1.017460844502466</v>
       </c>
       <c r="C8">
-        <v>0.3867461724505574</v>
+        <v>0.1929449612804888</v>
       </c>
       <c r="D8">
-        <v>0.03759534629924133</v>
+        <v>0.02081353636032901</v>
       </c>
       <c r="E8">
-        <v>0.03781794598233645</v>
+        <v>0.08841030716870435</v>
       </c>
       <c r="F8">
-        <v>0.5499241150505227</v>
+        <v>0.6855545383949817</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2730705841931496</v>
+        <v>0.5860611422964368</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3056660105726507</v>
+        <v>0.2175261706784397</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6944516418689091</v>
+        <v>1.082507844134042</v>
       </c>
       <c r="O8">
-        <v>1.575614108600831</v>
+        <v>2.322313030469701</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.349034056316896</v>
+        <v>1.270725647457823</v>
       </c>
       <c r="C9">
-        <v>0.4876183789599509</v>
+        <v>0.2259868145100086</v>
       </c>
       <c r="D9">
-        <v>0.04717042251322567</v>
+        <v>0.02405681686477124</v>
       </c>
       <c r="E9">
-        <v>0.0395583829535191</v>
+        <v>0.08723686863369551</v>
       </c>
       <c r="F9">
-        <v>0.6791609798561637</v>
+        <v>0.7043012336873318</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2887562483724651</v>
+        <v>0.5763846500694285</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4044011700060395</v>
+        <v>0.2421952227594772</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.663662698733205</v>
+        <v>1.066109642971981</v>
       </c>
       <c r="O9">
-        <v>1.884037763752673</v>
+        <v>2.349343833708645</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.982255934047885</v>
+        <v>1.45713589541549</v>
       </c>
       <c r="C10">
-        <v>0.5617759937890696</v>
+        <v>0.2499406610461392</v>
       </c>
       <c r="D10">
-        <v>0.05418536356485504</v>
+        <v>0.0264081263776248</v>
       </c>
       <c r="E10">
-        <v>0.04126770381498979</v>
+        <v>0.08658998129950035</v>
       </c>
       <c r="F10">
-        <v>0.7814010477108582</v>
+        <v>0.7204758102281659</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3050255834515241</v>
+        <v>0.5711452031298094</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4788626120195403</v>
+        <v>0.2608558580581644</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6463501900286985</v>
+        <v>1.056182097808296</v>
       </c>
       <c r="O10">
-        <v>2.133935494298271</v>
+        <v>2.377203493937657</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.271883178816438</v>
+        <v>1.542000895782223</v>
       </c>
       <c r="C11">
-        <v>0.5955722511930901</v>
+        <v>0.2607667725354474</v>
       </c>
       <c r="D11">
-        <v>0.05737526724733755</v>
+        <v>0.02747080463101526</v>
       </c>
       <c r="E11">
-        <v>0.04215069913066394</v>
+        <v>0.08634240727371179</v>
       </c>
       <c r="F11">
-        <v>0.8298144906234057</v>
+        <v>0.7283582978814138</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3136218716422761</v>
+        <v>0.5691693153636308</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5132652932494608</v>
+        <v>0.2694614766756871</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6397521579152752</v>
+        <v>1.052125141489121</v>
       </c>
       <c r="O11">
-        <v>2.253653379552418</v>
+        <v>2.391624023469006</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.3818289148453</v>
+        <v>1.574145223253652</v>
       </c>
       <c r="C12">
-        <v>0.6083832829694131</v>
+        <v>0.2648560342221344</v>
       </c>
       <c r="D12">
-        <v>0.05858327533031371</v>
+        <v>0.02787219736050162</v>
       </c>
       <c r="E12">
-        <v>0.0425012811349319</v>
+        <v>0.08625536996305172</v>
       </c>
       <c r="F12">
-        <v>0.8484496997639894</v>
+        <v>0.7314187963054053</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3170637208898199</v>
+        <v>0.5684798350986071</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5263787404405633</v>
+        <v>0.2727369443705214</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6374486530304821</v>
+        <v>1.050654824032975</v>
       </c>
       <c r="O12">
-        <v>2.299943035927015</v>
+        <v>2.397336545232321</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.358137374576586</v>
+        <v>1.567222047657935</v>
       </c>
       <c r="C13">
-        <v>0.6056235423084786</v>
+        <v>0.263975802093313</v>
       </c>
       <c r="D13">
-        <v>0.0583231024755122</v>
+        <v>0.02778579598800235</v>
       </c>
       <c r="E13">
-        <v>0.04242503855421553</v>
+        <v>0.08627381644093646</v>
       </c>
       <c r="F13">
-        <v>0.8444223655195486</v>
+        <v>0.7307563000046287</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3163139109525233</v>
+        <v>0.5686257120839926</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5235505421282625</v>
+        <v>0.2720307721875912</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6379358914708178</v>
+        <v>1.05096855033387</v>
       </c>
       <c r="O13">
-        <v>2.289929800747217</v>
+        <v>2.396095044594603</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.280922799819621</v>
+        <v>1.544645282498038</v>
       </c>
       <c r="C14">
-        <v>0.5966259336643134</v>
+        <v>0.2611034071505856</v>
       </c>
       <c r="D14">
-        <v>0.05747464814933778</v>
+        <v>0.02750384802961037</v>
       </c>
       <c r="E14">
-        <v>0.04217921056172358</v>
+        <v>0.08633511212028999</v>
       </c>
       <c r="F14">
-        <v>0.8313413966299379</v>
+        <v>0.7286085715923747</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3139012062699109</v>
+        <v>0.5691114132668531</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5143423646778871</v>
+        <v>0.2697306170601763</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6395586709092314</v>
+        <v>1.052002855894685</v>
       </c>
       <c r="O14">
-        <v>2.257441995746262</v>
+        <v>2.392088946829489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.233663202169566</v>
+        <v>1.530817326412887</v>
       </c>
       <c r="C15">
-        <v>0.5911164807667717</v>
+        <v>0.2593426283442284</v>
       </c>
       <c r="D15">
-        <v>0.05695496068140216</v>
+        <v>0.02733101322064613</v>
       </c>
       <c r="E15">
-        <v>0.04203077734643657</v>
+        <v>0.08637353175626217</v>
       </c>
       <c r="F15">
-        <v>0.8233691418878095</v>
+        <v>0.7273028715599139</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3124481141274345</v>
+        <v>0.5694165737751078</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5087135772868265</v>
+        <v>0.2683238786775064</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6405784177945364</v>
+        <v>1.052644986684726</v>
       </c>
       <c r="O15">
-        <v>2.237669344448165</v>
+        <v>2.389667902034972</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.963363433227471</v>
+        <v>1.451590951338915</v>
       </c>
       <c r="C16">
-        <v>0.5595689241499144</v>
+        <v>0.2492317113716922</v>
       </c>
       <c r="D16">
-        <v>0.05397689098364111</v>
+        <v>0.02633853624700322</v>
       </c>
       <c r="E16">
-        <v>0.04121220763283695</v>
+        <v>0.08660710040017783</v>
       </c>
       <c r="F16">
-        <v>0.7782778003935249</v>
+        <v>0.7199712388882062</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3044890843858781</v>
+        <v>0.5712825450968708</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4766257908954969</v>
+        <v>0.2602958033715339</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6468080439813662</v>
+        <v>1.05645646323692</v>
       </c>
       <c r="O16">
-        <v>2.126240428637061</v>
+        <v>2.376296281024224</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.797976123041963</v>
+        <v>1.403003838688335</v>
       </c>
       <c r="C17">
-        <v>0.5402342098370809</v>
+        <v>0.2430107647477087</v>
       </c>
       <c r="D17">
-        <v>0.05214978980827567</v>
+        <v>0.02572788959970751</v>
       </c>
       <c r="E17">
-        <v>0.040737768692507</v>
+        <v>0.08676234664163474</v>
       </c>
       <c r="F17">
-        <v>0.7511228662879006</v>
+        <v>0.7156079773055808</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2999227821419979</v>
+        <v>0.5725317433550074</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.457083355740437</v>
+        <v>0.2554006915600411</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6509647334108308</v>
+        <v>1.058912232329241</v>
       </c>
       <c r="O17">
-        <v>2.059488703763634</v>
+        <v>2.368541080038</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.702994777152412</v>
+        <v>1.375064134507568</v>
       </c>
       <c r="C18">
-        <v>0.5291189128055862</v>
+        <v>0.239426006107351</v>
       </c>
       <c r="D18">
-        <v>0.05109875856102519</v>
+        <v>0.02537600948146945</v>
       </c>
       <c r="E18">
-        <v>0.04047473938083002</v>
+        <v>0.08685603572949674</v>
       </c>
       <c r="F18">
-        <v>0.7356814604928843</v>
+        <v>0.7131477136699829</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2974079295283474</v>
+        <v>0.5732886026417034</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.445892308208883</v>
+        <v>0.2525961520362756</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6534750742259874</v>
+        <v>1.060367944823199</v>
       </c>
       <c r="O18">
-        <v>2.021657655299691</v>
+        <v>2.364244899060054</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.670859349491479</v>
+        <v>1.365605367813487</v>
       </c>
       <c r="C19">
-        <v>0.5253562883586369</v>
+        <v>0.2382111349433558</v>
       </c>
       <c r="D19">
-        <v>0.05074286803345984</v>
+        <v>0.02525675755007484</v>
       </c>
       <c r="E19">
-        <v>0.04038734389709475</v>
+        <v>0.08688851223300453</v>
       </c>
       <c r="F19">
-        <v>0.7304829039810272</v>
+        <v>0.7123231856937338</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2965751725132364</v>
+        <v>0.5735514452166868</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4421113851415015</v>
+        <v>0.2516484750015593</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6543452282602189</v>
+        <v>1.060868248855165</v>
       </c>
       <c r="O19">
-        <v>2.008942827448436</v>
+        <v>2.362818505716433</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.815566562242509</v>
+        <v>1.408175378240628</v>
       </c>
       <c r="C20">
-        <v>0.5422918222743078</v>
+        <v>0.2436736832330268</v>
       </c>
       <c r="D20">
-        <v>0.0523442997466077</v>
+        <v>0.02579296164895339</v>
       </c>
       <c r="E20">
-        <v>0.04078724612496032</v>
+        <v>0.08674536550199718</v>
       </c>
       <c r="F20">
-        <v>0.7539949972268829</v>
+        <v>0.7160673434521385</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3003972229344498</v>
+        <v>0.5723947936203686</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4591585166359806</v>
+        <v>0.2559206468274766</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6505097970045455</v>
+        <v>1.058646338947128</v>
       </c>
       <c r="O20">
-        <v>2.066535684774578</v>
+        <v>2.369349615002449</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.303594889303213</v>
+        <v>1.551276427734933</v>
       </c>
       <c r="C21">
-        <v>0.5992683573458351</v>
+        <v>0.2619473816907032</v>
       </c>
       <c r="D21">
-        <v>0.05772385610974595</v>
+        <v>0.02758669084867194</v>
       </c>
       <c r="E21">
-        <v>0.0422509675171181</v>
+        <v>0.08631692590063089</v>
       </c>
       <c r="F21">
-        <v>0.835175159742704</v>
+        <v>0.7292373594273585</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3146046885254137</v>
+        <v>0.5689671556162779</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5170446173166425</v>
+        <v>0.2704057756758544</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6390766341535397</v>
+        <v>1.051697265486254</v>
       </c>
       <c r="O21">
-        <v>2.266957806774968</v>
+        <v>2.393258797168016</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.624147590946393</v>
+        <v>1.64484587520019</v>
       </c>
       <c r="C22">
-        <v>0.6365845717308503</v>
+        <v>0.2738298704788917</v>
       </c>
       <c r="D22">
-        <v>0.0612401864161356</v>
+        <v>0.02875303839744703</v>
       </c>
       <c r="E22">
-        <v>0.04330262208316071</v>
+        <v>0.08607604712291028</v>
       </c>
       <c r="F22">
-        <v>0.8900065597102582</v>
+        <v>0.7382852762447101</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3249854807555437</v>
+        <v>0.5670694740965772</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5553822538551998</v>
+        <v>0.279969982454233</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6327469941359141</v>
+        <v>1.047540108012008</v>
       </c>
       <c r="O22">
-        <v>2.403557283392132</v>
+        <v>2.410352654854051</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.452900811767847</v>
+        <v>1.594902577554763</v>
       </c>
       <c r="C23">
-        <v>0.6166594866290893</v>
+        <v>0.2674935570931609</v>
       </c>
       <c r="D23">
-        <v>0.05936332713280734</v>
+        <v>0.02813108915956519</v>
       </c>
       <c r="E23">
-        <v>0.04273227329650986</v>
+        <v>0.08620102866204959</v>
       </c>
       <c r="F23">
-        <v>0.8605696495339856</v>
+        <v>0.7334158779203079</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3193396767007783</v>
+        <v>0.5680509199981429</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5348710597652513</v>
+        <v>0.2748565084738459</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6360167465118707</v>
+        <v>1.049723701026494</v>
       </c>
       <c r="O23">
-        <v>2.330107675865946</v>
+        <v>2.401094851227867</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.807613610203873</v>
+        <v>1.405837344783777</v>
       </c>
       <c r="C24">
-        <v>0.5413615744896845</v>
+        <v>0.243374003482387</v>
       </c>
       <c r="D24">
-        <v>0.05225636371028486</v>
+        <v>0.02576354510038215</v>
       </c>
       <c r="E24">
-        <v>0.04076484714365769</v>
+        <v>0.08675302885776226</v>
       </c>
       <c r="F24">
-        <v>0.7526959784127598</v>
+        <v>0.7158595137828314</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3001823855596939</v>
+        <v>0.5724565881233445</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.458220199576246</v>
+        <v>0.2556855447520974</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6507150989442252</v>
+        <v>1.058766412722925</v>
       </c>
       <c r="O24">
-        <v>2.063348052325011</v>
+        <v>2.368983570557162</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.116960708677595</v>
+        <v>1.202147593333734</v>
       </c>
       <c r="C25">
-        <v>0.4603372308878306</v>
+        <v>0.2171042145760111</v>
       </c>
       <c r="D25">
-        <v>0.04458452409151192</v>
+        <v>0.02318490598914735</v>
       </c>
       <c r="E25">
-        <v>0.03901574835237653</v>
+        <v>0.08751650656248344</v>
       </c>
       <c r="F25">
-        <v>0.6430208461302129</v>
+        <v>0.6988089389161587</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2837323320781344</v>
+        <v>0.5786745710130496</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3773888719464082</v>
+        <v>0.2354273560700477</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6710999325979472</v>
+        <v>1.070173079762526</v>
       </c>
       <c r="O25">
-        <v>1.796820879969772</v>
+        <v>2.340629363084759</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.052410929767802</v>
+        <v>2.611485503766971</v>
       </c>
       <c r="C2">
-        <v>0.1975470831521875</v>
+        <v>0.4006947181124474</v>
       </c>
       <c r="D2">
-        <v>0.02126524561209209</v>
+        <v>0.03892160226458685</v>
       </c>
       <c r="E2">
-        <v>0.08822327336754476</v>
+        <v>0.03801268009688563</v>
       </c>
       <c r="F2">
-        <v>0.6878680425175787</v>
+        <v>0.5670457206655186</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5845085108126327</v>
+        <v>0.2747450192646959</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.220872605439709</v>
+        <v>0.3191236248557487</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.079996518808514</v>
+        <v>0.6896262412727268</v>
       </c>
       <c r="O2">
-        <v>2.325126003310601</v>
+        <v>1.615864133733908</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9510981902345179</v>
+        <v>2.27010974787396</v>
       </c>
       <c r="C3">
-        <v>0.1841607495851179</v>
+        <v>0.3602160953515749</v>
       </c>
       <c r="D3">
-        <v>0.01995137572605898</v>
+        <v>0.03507087701395761</v>
       </c>
       <c r="E3">
-        <v>0.08879252124508064</v>
+        <v>0.0374939181433529</v>
       </c>
       <c r="F3">
-        <v>0.6814553148613385</v>
+        <v>0.5180952074261214</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5892430574794965</v>
+        <v>0.2703751783946657</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.211234034076071</v>
+        <v>0.2802626242605726</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.087544628982975</v>
+        <v>0.7042024856920506</v>
       </c>
       <c r="O3">
-        <v>2.317957044106976</v>
+        <v>1.501415875004369</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8889802177097863</v>
+        <v>2.060878189849234</v>
       </c>
       <c r="C4">
-        <v>0.1758770014104414</v>
+        <v>0.3353133980431267</v>
       </c>
       <c r="D4">
-        <v>0.01913838266573009</v>
+        <v>0.03269896909841918</v>
       </c>
       <c r="E4">
-        <v>0.08918658682360459</v>
+        <v>0.03724969136274758</v>
       </c>
       <c r="F4">
-        <v>0.6780108799843703</v>
+        <v>0.4891564558907504</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5925344515371762</v>
+        <v>0.2684708348351457</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2054272173411107</v>
+        <v>0.256663811249453</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.092619227828692</v>
+        <v>0.714096049485974</v>
       </c>
       <c r="O4">
-        <v>2.315197429004968</v>
+        <v>1.434771113408175</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.863690449485091</v>
+        <v>1.975680737643899</v>
       </c>
       <c r="C5">
-        <v>0.1724852679513589</v>
+        <v>0.3251505393861578</v>
       </c>
       <c r="D5">
-        <v>0.01880552398137425</v>
+        <v>0.03173035351944264</v>
       </c>
       <c r="E5">
-        <v>0.08935837718386708</v>
+        <v>0.03716812663036961</v>
       </c>
       <c r="F5">
-        <v>0.6767311016908693</v>
+        <v>0.477625770204277</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5939722641412644</v>
+        <v>0.2678807655608715</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.203088963409698</v>
+        <v>0.2471065917840889</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.094797927558623</v>
+        <v>0.7183575732653225</v>
       </c>
       <c r="O5">
-        <v>2.314485336073773</v>
+        <v>1.408467425481035</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8594925869730048</v>
+        <v>1.961536970242292</v>
       </c>
       <c r="C6">
-        <v>0.1719211096941535</v>
+        <v>0.3234620384072144</v>
       </c>
       <c r="D6">
-        <v>0.01875015956515469</v>
+        <v>0.03156938813076948</v>
       </c>
       <c r="E6">
-        <v>0.08938757974779676</v>
+        <v>0.0371556470670491</v>
       </c>
       <c r="F6">
-        <v>0.6765260728177367</v>
+        <v>0.4757264060694695</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5942168396013123</v>
+        <v>0.2677937375688586</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2027023959845735</v>
+        <v>0.2455230351703648</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.095166391931876</v>
+        <v>0.719078865129589</v>
       </c>
       <c r="O6">
-        <v>2.314391992456308</v>
+        <v>1.404149708608571</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8886390525689194</v>
+        <v>2.059728955426465</v>
       </c>
       <c r="C7">
-        <v>0.1758313240119094</v>
+        <v>0.3351764014009007</v>
       </c>
       <c r="D7">
-        <v>0.01913389989611858</v>
+        <v>0.03268591447094593</v>
       </c>
       <c r="E7">
-        <v>0.08918885827237411</v>
+        <v>0.03724851956564024</v>
       </c>
       <c r="F7">
-        <v>0.6779931191065103</v>
+        <v>0.4889999120125594</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5925534516275022</v>
+        <v>0.2684621366690472</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2053955690619063</v>
+        <v>0.2565346865866047</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.092648161925439</v>
+        <v>0.7141526009636721</v>
       </c>
       <c r="O7">
-        <v>2.315186155999982</v>
+        <v>1.434412986271241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.017460844502466</v>
+        <v>2.493683880146079</v>
       </c>
       <c r="C8">
-        <v>0.1929449612804888</v>
+        <v>0.3867461724508985</v>
       </c>
       <c r="D8">
-        <v>0.02081353636032901</v>
+        <v>0.03759534629958239</v>
       </c>
       <c r="E8">
-        <v>0.08841030716870435</v>
+        <v>0.03781794598231869</v>
       </c>
       <c r="F8">
-        <v>0.6855545383949817</v>
+        <v>0.5499241150505298</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5860611422964368</v>
+        <v>0.2730705841931531</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2175261706784397</v>
+        <v>0.305666010572665</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.082507844134042</v>
+        <v>0.6944516418689091</v>
       </c>
       <c r="O8">
-        <v>2.322313030469701</v>
+        <v>1.575614108600917</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.270725647457823</v>
+        <v>3.349034056316896</v>
       </c>
       <c r="C9">
-        <v>0.2259868145100086</v>
+        <v>0.4876183789596951</v>
       </c>
       <c r="D9">
-        <v>0.02405681686477124</v>
+        <v>0.04717042251323988</v>
       </c>
       <c r="E9">
-        <v>0.08723686863369551</v>
+        <v>0.03955838295353864</v>
       </c>
       <c r="F9">
-        <v>0.7043012336873318</v>
+        <v>0.6791609798561637</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5763846500694285</v>
+        <v>0.2887562483724615</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2421952227594772</v>
+        <v>0.40440117000621</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.066109642971981</v>
+        <v>0.6636626987331553</v>
       </c>
       <c r="O9">
-        <v>2.349343833708645</v>
+        <v>1.884037763752673</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.45713589541549</v>
+        <v>3.982255934047714</v>
       </c>
       <c r="C10">
-        <v>0.2499406610461392</v>
+        <v>0.5617759937890696</v>
       </c>
       <c r="D10">
-        <v>0.0264081263776248</v>
+        <v>0.05418536356485504</v>
       </c>
       <c r="E10">
-        <v>0.08658998129950035</v>
+        <v>0.04126770381495426</v>
       </c>
       <c r="F10">
-        <v>0.7204758102281659</v>
+        <v>0.7814010477108582</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5711452031298094</v>
+        <v>0.3050255834515028</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2608558580581644</v>
+        <v>0.4788626120195261</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.056182097808296</v>
+        <v>0.6463501900286914</v>
       </c>
       <c r="O10">
-        <v>2.377203493937657</v>
+        <v>2.133935494298299</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.542000895782223</v>
+        <v>4.271883178816438</v>
       </c>
       <c r="C11">
-        <v>0.2607667725354474</v>
+        <v>0.5955722511930901</v>
       </c>
       <c r="D11">
-        <v>0.02747080463101526</v>
+        <v>0.05737526724744413</v>
       </c>
       <c r="E11">
-        <v>0.08634240727371179</v>
+        <v>0.04215069913067104</v>
       </c>
       <c r="F11">
-        <v>0.7283582978814138</v>
+        <v>0.8298144906234199</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5691693153636308</v>
+        <v>0.3136218716422547</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2694614766756871</v>
+        <v>0.5132652932495887</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.052125141489121</v>
+        <v>0.6397521579152396</v>
       </c>
       <c r="O11">
-        <v>2.391624023469006</v>
+        <v>2.253653379552475</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.574145223253652</v>
+        <v>4.381828914845414</v>
       </c>
       <c r="C12">
-        <v>0.2648560342221344</v>
+        <v>0.6083832829697258</v>
       </c>
       <c r="D12">
-        <v>0.02787219736050162</v>
+        <v>0.0585832753304274</v>
       </c>
       <c r="E12">
-        <v>0.08625536996305172</v>
+        <v>0.04250128113494256</v>
       </c>
       <c r="F12">
-        <v>0.7314187963054053</v>
+        <v>0.8484496997639752</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5684798350986071</v>
+        <v>0.317063720889827</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2727369443705214</v>
+        <v>0.5263787404406344</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.050654824032975</v>
+        <v>0.6374486530304893</v>
       </c>
       <c r="O12">
-        <v>2.397336545232321</v>
+        <v>2.2999430359271</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.567222047657935</v>
+        <v>4.358137374576586</v>
       </c>
       <c r="C13">
-        <v>0.263975802093313</v>
+        <v>0.6056235423087912</v>
       </c>
       <c r="D13">
-        <v>0.02778579598800235</v>
+        <v>0.05832310247545536</v>
       </c>
       <c r="E13">
-        <v>0.08627381644093646</v>
+        <v>0.04242503855419777</v>
       </c>
       <c r="F13">
-        <v>0.7307563000046287</v>
+        <v>0.8444223655195486</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5686257120839926</v>
+        <v>0.316313910952509</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2720307721875912</v>
+        <v>0.5235505421282767</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.05096855033387</v>
+        <v>0.6379358914708106</v>
       </c>
       <c r="O13">
-        <v>2.396095044594603</v>
+        <v>2.289929800747274</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.544645282498038</v>
+        <v>4.28092279981945</v>
       </c>
       <c r="C14">
-        <v>0.2611034071505856</v>
+        <v>0.5966259336643134</v>
       </c>
       <c r="D14">
-        <v>0.02750384802961037</v>
+        <v>0.05747464814945147</v>
       </c>
       <c r="E14">
-        <v>0.08633511212028999</v>
+        <v>0.0421792105617218</v>
       </c>
       <c r="F14">
-        <v>0.7286085715923747</v>
+        <v>0.8313413966299521</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5691114132668531</v>
+        <v>0.3139012062699109</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2697306170601763</v>
+        <v>0.5143423646778587</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.052002855894685</v>
+        <v>0.6395586709092314</v>
       </c>
       <c r="O14">
-        <v>2.392088946829489</v>
+        <v>2.257441995746262</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.530817326412887</v>
+        <v>4.233663202169623</v>
       </c>
       <c r="C15">
-        <v>0.2593426283442284</v>
+        <v>0.591116480766658</v>
       </c>
       <c r="D15">
-        <v>0.02733101322064613</v>
+        <v>0.05695496068150163</v>
       </c>
       <c r="E15">
-        <v>0.08637353175626217</v>
+        <v>0.04203077734645078</v>
       </c>
       <c r="F15">
-        <v>0.7273028715599139</v>
+        <v>0.8233691418878095</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5694165737751078</v>
+        <v>0.3124481141274487</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2683238786775064</v>
+        <v>0.5087135772868265</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.052644986684726</v>
+        <v>0.6405784177945364</v>
       </c>
       <c r="O15">
-        <v>2.389667902034972</v>
+        <v>2.237669344448079</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.451590951338915</v>
+        <v>3.963363433227528</v>
       </c>
       <c r="C16">
-        <v>0.2492317113716922</v>
+        <v>0.559568924149886</v>
       </c>
       <c r="D16">
-        <v>0.02633853624700322</v>
+        <v>0.05397689098353453</v>
       </c>
       <c r="E16">
-        <v>0.08660710040017783</v>
+        <v>0.04121220763282274</v>
       </c>
       <c r="F16">
-        <v>0.7199712388882062</v>
+        <v>0.7782778003935107</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5712825450968708</v>
+        <v>0.3044890843858994</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2602958033715339</v>
+        <v>0.4766257908955964</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.05645646323692</v>
+        <v>0.6468080439814372</v>
       </c>
       <c r="O16">
-        <v>2.376296281024224</v>
+        <v>2.126240428637061</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.403003838688335</v>
+        <v>3.797976123041963</v>
       </c>
       <c r="C17">
-        <v>0.2430107647477087</v>
+        <v>0.5402342098370809</v>
       </c>
       <c r="D17">
-        <v>0.02572788959970751</v>
+        <v>0.05214978980838225</v>
       </c>
       <c r="E17">
-        <v>0.08676234664163474</v>
+        <v>0.04073776869250345</v>
       </c>
       <c r="F17">
-        <v>0.7156079773055808</v>
+        <v>0.7511228662878864</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5725317433550074</v>
+        <v>0.2999227821419979</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2554006915600411</v>
+        <v>0.4570833557405081</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.058912232329241</v>
+        <v>0.6509647334108237</v>
       </c>
       <c r="O17">
-        <v>2.368541080038</v>
+        <v>2.059488703763549</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.375064134507568</v>
+        <v>3.702994777152298</v>
       </c>
       <c r="C18">
-        <v>0.239426006107351</v>
+        <v>0.5291189128053588</v>
       </c>
       <c r="D18">
-        <v>0.02537600948146945</v>
+        <v>0.05109875856091151</v>
       </c>
       <c r="E18">
-        <v>0.08685603572949674</v>
+        <v>0.04047473938084245</v>
       </c>
       <c r="F18">
-        <v>0.7131477136699829</v>
+        <v>0.7356814604928843</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5732886026417034</v>
+        <v>0.2974079295283403</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2525961520362756</v>
+        <v>0.4458923082089399</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.060367944823199</v>
+        <v>0.65347507422603</v>
       </c>
       <c r="O18">
-        <v>2.364244899060054</v>
+        <v>2.021657655299663</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.365605367813487</v>
+        <v>3.670859349491593</v>
       </c>
       <c r="C19">
-        <v>0.2382111349433558</v>
+        <v>0.525356288358779</v>
       </c>
       <c r="D19">
-        <v>0.02525675755007484</v>
+        <v>0.05074286803357353</v>
       </c>
       <c r="E19">
-        <v>0.08688851223300453</v>
+        <v>0.04038734389709475</v>
       </c>
       <c r="F19">
-        <v>0.7123231856937338</v>
+        <v>0.7304829039810272</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5735514452166868</v>
+        <v>0.2965751725132506</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2516484750015593</v>
+        <v>0.442111385141601</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.060868248855165</v>
+        <v>0.654345228260155</v>
       </c>
       <c r="O19">
-        <v>2.362818505716433</v>
+        <v>2.008942827448493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.408175378240628</v>
+        <v>3.815566562242395</v>
       </c>
       <c r="C20">
-        <v>0.2436736832330268</v>
+        <v>0.5422918222739668</v>
       </c>
       <c r="D20">
-        <v>0.02579296164895339</v>
+        <v>0.05234429974671428</v>
       </c>
       <c r="E20">
-        <v>0.08674536550199718</v>
+        <v>0.04078724612496032</v>
       </c>
       <c r="F20">
-        <v>0.7160673434521385</v>
+        <v>0.7539949972268687</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5723947936203686</v>
+        <v>0.3003972229344427</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2559206468274766</v>
+        <v>0.4591585166360375</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.058646338947128</v>
+        <v>0.6505097970044815</v>
       </c>
       <c r="O20">
-        <v>2.369349615002449</v>
+        <v>2.066535684774607</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.551276427734933</v>
+        <v>4.303594889303383</v>
       </c>
       <c r="C21">
-        <v>0.2619473816907032</v>
+        <v>0.5992683573460624</v>
       </c>
       <c r="D21">
-        <v>0.02758669084867194</v>
+        <v>0.05772385610985964</v>
       </c>
       <c r="E21">
-        <v>0.08631692590063089</v>
+        <v>0.04225096751715007</v>
       </c>
       <c r="F21">
-        <v>0.7292373594273585</v>
+        <v>0.835175159742704</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5689671556162779</v>
+        <v>0.3146046885254137</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2704057756758544</v>
+        <v>0.5170446173166852</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.051697265486254</v>
+        <v>0.6390766341535326</v>
       </c>
       <c r="O21">
-        <v>2.393258797168016</v>
+        <v>2.266957806775025</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.64484587520019</v>
+        <v>4.624147590946222</v>
       </c>
       <c r="C22">
-        <v>0.2738298704788917</v>
+        <v>0.6365845717311913</v>
       </c>
       <c r="D22">
-        <v>0.02875303839744703</v>
+        <v>0.06124018641589402</v>
       </c>
       <c r="E22">
-        <v>0.08607604712291028</v>
+        <v>0.04330262208314473</v>
       </c>
       <c r="F22">
-        <v>0.7382852762447101</v>
+        <v>0.8900065597102724</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5670694740965772</v>
+        <v>0.3249854807555508</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.279969982454233</v>
+        <v>0.5553822538551287</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.047540108012008</v>
+        <v>0.6327469941359709</v>
       </c>
       <c r="O22">
-        <v>2.410352654854051</v>
+        <v>2.403557283392217</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.594902577554763</v>
+        <v>4.452900811767847</v>
       </c>
       <c r="C23">
-        <v>0.2674935570931609</v>
+        <v>0.6166594866292314</v>
       </c>
       <c r="D23">
-        <v>0.02813108915956519</v>
+        <v>0.05936332713269366</v>
       </c>
       <c r="E23">
-        <v>0.08620102866204959</v>
+        <v>0.04273227329650808</v>
       </c>
       <c r="F23">
-        <v>0.7334158779203079</v>
+        <v>0.8605696495339714</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5680509199981429</v>
+        <v>0.3193396767007926</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2748565084738459</v>
+        <v>0.534871059765095</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.049723701026494</v>
+        <v>0.6360167465118636</v>
       </c>
       <c r="O23">
-        <v>2.401094851227867</v>
+        <v>2.330107675865889</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.405837344783777</v>
+        <v>3.807613610203816</v>
       </c>
       <c r="C24">
-        <v>0.243374003482387</v>
+        <v>0.5413615744894287</v>
       </c>
       <c r="D24">
-        <v>0.02576354510038215</v>
+        <v>0.0522563637103346</v>
       </c>
       <c r="E24">
-        <v>0.08675302885776226</v>
+        <v>0.04076484714363815</v>
       </c>
       <c r="F24">
-        <v>0.7158595137828314</v>
+        <v>0.752695978412774</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5724565881233445</v>
+        <v>0.3001823855596868</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2556855447520974</v>
+        <v>0.4582201995762603</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.058766412722925</v>
+        <v>0.650715098944211</v>
       </c>
       <c r="O24">
-        <v>2.368983570557162</v>
+        <v>2.063348052324983</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.202147593333734</v>
+        <v>3.116960708677595</v>
       </c>
       <c r="C25">
-        <v>0.2171042145760111</v>
+        <v>0.4603372308880864</v>
       </c>
       <c r="D25">
-        <v>0.02318490598914735</v>
+        <v>0.0445845240916185</v>
       </c>
       <c r="E25">
-        <v>0.08751650656248344</v>
+        <v>0.03901574835236055</v>
       </c>
       <c r="F25">
-        <v>0.6988089389161587</v>
+        <v>0.6430208461302271</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5786745710130496</v>
+        <v>0.2837323320781309</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2354273560700477</v>
+        <v>0.3773888719464367</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.070173079762526</v>
+        <v>0.6710999325978761</v>
       </c>
       <c r="O25">
-        <v>2.340629363084759</v>
+        <v>1.796820879969715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.611485503766971</v>
+        <v>0.982084157988254</v>
       </c>
       <c r="C2">
-        <v>0.4006947181124474</v>
+        <v>0.2009574294844612</v>
       </c>
       <c r="D2">
-        <v>0.03892160226458685</v>
+        <v>0.2296534259886869</v>
       </c>
       <c r="E2">
-        <v>0.03801268009688563</v>
+        <v>0.1877526620511105</v>
       </c>
       <c r="F2">
-        <v>0.5670457206655186</v>
+        <v>0.8212007675765562</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001341057390324973</v>
       </c>
       <c r="I2">
-        <v>0.2747450192646959</v>
+        <v>0.003384938925326431</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3652511777956988</v>
       </c>
       <c r="L2">
-        <v>0.3191236248557487</v>
+        <v>0.204765673522104</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.128891389677449</v>
       </c>
       <c r="N2">
-        <v>0.6896262412727268</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.615864133733908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.834715058189758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.27010974787396</v>
+        <v>0.8558279251633962</v>
       </c>
       <c r="C3">
-        <v>0.3602160953515749</v>
+        <v>0.1761789838103738</v>
       </c>
       <c r="D3">
-        <v>0.03507087701395761</v>
+        <v>0.2019511328226713</v>
       </c>
       <c r="E3">
-        <v>0.0374939181433529</v>
+        <v>0.165959841585277</v>
       </c>
       <c r="F3">
-        <v>0.5180952074261214</v>
+        <v>0.7892788911560302</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002553199775955362</v>
       </c>
       <c r="I3">
-        <v>0.2703751783946657</v>
+        <v>0.00480861348734507</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3687101832176332</v>
       </c>
       <c r="L3">
-        <v>0.2802626242605726</v>
+        <v>0.181734425907301</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9848145797133157</v>
       </c>
       <c r="N3">
-        <v>0.7042024856920506</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.501415875004369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.808186681885459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.060878189849234</v>
+        <v>0.7780578599809758</v>
       </c>
       <c r="C4">
-        <v>0.3353133980431267</v>
+        <v>0.1611571104081975</v>
       </c>
       <c r="D4">
-        <v>0.03269896909841918</v>
+        <v>0.185014501743197</v>
       </c>
       <c r="E4">
-        <v>0.03724969136274758</v>
+        <v>0.1525924046396341</v>
       </c>
       <c r="F4">
-        <v>0.4891564558907504</v>
+        <v>0.7701293480848292</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003527436586889476</v>
       </c>
       <c r="I4">
-        <v>0.2684708348351457</v>
+        <v>0.005891266189231636</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.371059324287792</v>
       </c>
       <c r="L4">
-        <v>0.256663811249453</v>
+        <v>0.1675695930009695</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8963982757552174</v>
       </c>
       <c r="N4">
-        <v>0.714096049485974</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.434771113408175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.793251968680067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.975680737643899</v>
+        <v>0.7459734738594932</v>
       </c>
       <c r="C5">
-        <v>0.3251505393861578</v>
+        <v>0.1555520539830297</v>
       </c>
       <c r="D5">
-        <v>0.03173035351944264</v>
+        <v>0.178283559735732</v>
       </c>
       <c r="E5">
-        <v>0.03716812663036961</v>
+        <v>0.147183447832667</v>
       </c>
       <c r="F5">
-        <v>0.477625770204277</v>
+        <v>0.7617489437941174</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003981620117765927</v>
       </c>
       <c r="I5">
-        <v>0.2678807655608715</v>
+        <v>0.006462409847040274</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3716520240589141</v>
       </c>
       <c r="L5">
-        <v>0.2471065917840889</v>
+        <v>0.1617603542054127</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8607700560664853</v>
       </c>
       <c r="N5">
-        <v>0.7183575732653225</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.408467425481035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.785621066720324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.961536970242292</v>
+        <v>0.7402419344986981</v>
       </c>
       <c r="C6">
-        <v>0.3234620384072144</v>
+        <v>0.1552031280014745</v>
       </c>
       <c r="D6">
-        <v>0.03156938813076948</v>
+        <v>0.1773562462925184</v>
       </c>
       <c r="E6">
-        <v>0.0371556470670491</v>
+        <v>0.1463302101142396</v>
       </c>
       <c r="F6">
-        <v>0.4757264060694695</v>
+        <v>0.7595270585183229</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.004062484182454806</v>
       </c>
       <c r="I6">
-        <v>0.2677937375688586</v>
+        <v>0.00666491058643448</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3712419135489</v>
       </c>
       <c r="L6">
-        <v>0.2455230351703648</v>
+        <v>0.1607593792560422</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8553412477575932</v>
       </c>
       <c r="N6">
-        <v>0.719078865129589</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.404149708608571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.78208721375384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.059728955426465</v>
+        <v>0.7765294029272809</v>
       </c>
       <c r="C7">
-        <v>0.3351764014009007</v>
+        <v>0.1626656844629082</v>
       </c>
       <c r="D7">
-        <v>0.03268591447094593</v>
+        <v>0.1854419207409848</v>
       </c>
       <c r="E7">
-        <v>0.03724851956564024</v>
+        <v>0.1526422869695416</v>
       </c>
       <c r="F7">
-        <v>0.4889999120125594</v>
+        <v>0.767732640345983</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003538713071257638</v>
       </c>
       <c r="I7">
-        <v>0.2684621366690472</v>
+        <v>0.006168302482479682</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3696720581285575</v>
       </c>
       <c r="L7">
-        <v>0.2565346865866047</v>
+        <v>0.1673933346394136</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8972517018227961</v>
       </c>
       <c r="N7">
-        <v>0.7141526009636721</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.434412986271241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.786913018550706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.493683880146079</v>
+        <v>0.9371341928361403</v>
       </c>
       <c r="C8">
-        <v>0.3867461724508985</v>
+        <v>0.1944853220411034</v>
       </c>
       <c r="D8">
-        <v>0.03759534629958239</v>
+        <v>0.2207755776478564</v>
       </c>
       <c r="E8">
-        <v>0.03781794598231869</v>
+        <v>0.1803987296585987</v>
       </c>
       <c r="F8">
-        <v>0.5499241150505298</v>
+        <v>0.8070863021368098</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001714448973009874</v>
       </c>
       <c r="I8">
-        <v>0.2730705841931531</v>
+        <v>0.004153890173886232</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3645676766091022</v>
       </c>
       <c r="L8">
-        <v>0.305666010572665</v>
+        <v>0.1966984722073377</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.080979245939091</v>
       </c>
       <c r="N8">
-        <v>0.6944516418689091</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.575614108600917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.817079561893749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.349034056316896</v>
+        <v>1.252279257263325</v>
       </c>
       <c r="C9">
-        <v>0.4876183789596951</v>
+        <v>0.2557223140981506</v>
       </c>
       <c r="D9">
-        <v>0.04717042251323988</v>
+        <v>0.2898047525679175</v>
       </c>
       <c r="E9">
-        <v>0.03955838295353864</v>
+        <v>0.2347914506357753</v>
       </c>
       <c r="F9">
-        <v>0.6791609798561637</v>
+        <v>0.892181432486673</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.036542654881295E-05</v>
       </c>
       <c r="I9">
-        <v>0.2887562483724615</v>
+        <v>0.001552123290129437</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3588980535624771</v>
       </c>
       <c r="L9">
-        <v>0.40440117000621</v>
+        <v>0.2542382075579042</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.439607185917367</v>
       </c>
       <c r="N9">
-        <v>0.6636626987331553</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.884037763752673</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.898733100242168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.982255934047714</v>
+        <v>1.483101046651512</v>
       </c>
       <c r="C10">
-        <v>0.5617759937890696</v>
+        <v>0.3013214781513227</v>
       </c>
       <c r="D10">
-        <v>0.05418536356485504</v>
+        <v>0.3342344947551652</v>
       </c>
       <c r="E10">
-        <v>0.04126770381495426</v>
+        <v>0.264676148688153</v>
       </c>
       <c r="F10">
-        <v>0.7814010477108582</v>
+        <v>0.9409552808676693</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0003550797830027541</v>
       </c>
       <c r="I10">
-        <v>0.3050255834515028</v>
+        <v>0.0009961541428546994</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.351024895559874</v>
       </c>
       <c r="L10">
-        <v>0.4788626120195261</v>
+        <v>0.2820413229537451</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.70328089290328</v>
       </c>
       <c r="N10">
-        <v>0.6463501900286914</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.133935494298299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.936076597748155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.271883178816438</v>
+        <v>1.591971107375144</v>
       </c>
       <c r="C11">
-        <v>0.5955722511930901</v>
+        <v>0.3119260122576293</v>
       </c>
       <c r="D11">
-        <v>0.05737526724744413</v>
+        <v>0.2955143988239115</v>
       </c>
       <c r="E11">
-        <v>0.04215069913067104</v>
+        <v>0.1956783367631445</v>
       </c>
       <c r="F11">
-        <v>0.8298144906234199</v>
+        <v>0.8313047419060382</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01888834426677732</v>
       </c>
       <c r="I11">
-        <v>0.3136218716422547</v>
+        <v>0.001454802258598065</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3104316104867131</v>
       </c>
       <c r="L11">
-        <v>0.5132652932495887</v>
+        <v>0.183803117994735</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.812463513328083</v>
       </c>
       <c r="N11">
-        <v>0.6397521579152396</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.253653379552475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.714953528303823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.381828914845414</v>
+        <v>1.63728126807186</v>
       </c>
       <c r="C12">
-        <v>0.6083832829697258</v>
+        <v>0.3084399547414307</v>
       </c>
       <c r="D12">
-        <v>0.0585832753304274</v>
+        <v>0.2550376607447475</v>
       </c>
       <c r="E12">
-        <v>0.04250128113494256</v>
+        <v>0.1406385536651342</v>
       </c>
       <c r="F12">
-        <v>0.8484496997639752</v>
+        <v>0.7372696686370546</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05749336276995365</v>
       </c>
       <c r="I12">
-        <v>0.317063720889827</v>
+        <v>0.001446067323112921</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2822076437639964</v>
       </c>
       <c r="L12">
-        <v>0.5263787404406344</v>
+        <v>0.1153845665267923</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.846404973509294</v>
       </c>
       <c r="N12">
-        <v>0.6374486530304893</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.2999430359271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.539572372222139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.358137374576586</v>
+        <v>1.634110382145963</v>
       </c>
       <c r="C13">
-        <v>0.6056235423087912</v>
+        <v>0.2964562146433707</v>
       </c>
       <c r="D13">
-        <v>0.05832310247545536</v>
+        <v>0.2119521769012209</v>
       </c>
       <c r="E13">
-        <v>0.04242503855419777</v>
+        <v>0.09359147972632798</v>
       </c>
       <c r="F13">
-        <v>0.8444223655195486</v>
+        <v>0.646330279329824</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1131585267488902</v>
       </c>
       <c r="I13">
-        <v>0.316313910952509</v>
+        <v>0.001428482166753398</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2595528629972641</v>
       </c>
       <c r="L13">
-        <v>0.5235505421282767</v>
+        <v>0.06593706656745368</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.826191745118479</v>
       </c>
       <c r="N13">
-        <v>0.6379358914708106</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.289929800747274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.37914565135064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.28092279981945</v>
+        <v>1.609570835386478</v>
       </c>
       <c r="C14">
-        <v>0.5966259336643134</v>
+        <v>0.2847670759726384</v>
       </c>
       <c r="D14">
-        <v>0.05747464814945147</v>
+        <v>0.18136042817207</v>
       </c>
       <c r="E14">
-        <v>0.0421792105617218</v>
+        <v>0.06587102302932735</v>
       </c>
       <c r="F14">
-        <v>0.8313413966299521</v>
+        <v>0.5847817353792095</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624623360287245</v>
       </c>
       <c r="I14">
-        <v>0.3139012062699109</v>
+        <v>0.00151262226933202</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2463039194963628</v>
       </c>
       <c r="L14">
-        <v>0.5143423646778587</v>
+        <v>0.04281387364448186</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.787988705121251</v>
       </c>
       <c r="N14">
-        <v>0.6395586709092314</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.257441995746262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.274298771498664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.233663202169623</v>
+        <v>1.592717405232492</v>
       </c>
       <c r="C15">
-        <v>0.591116480766658</v>
+        <v>0.2807791820719956</v>
       </c>
       <c r="D15">
-        <v>0.05695496068150163</v>
+        <v>0.1732662488867334</v>
       </c>
       <c r="E15">
-        <v>0.04203077734645078</v>
+        <v>0.0596526292136339</v>
       </c>
       <c r="F15">
-        <v>0.8233691418878095</v>
+        <v>0.5692514438393061</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749598572868507</v>
       </c>
       <c r="I15">
-        <v>0.3124481141274487</v>
+        <v>0.001660022187931709</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.243653962665439</v>
       </c>
       <c r="L15">
-        <v>0.5087135772868265</v>
+        <v>0.03863748841162717</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.767753106674377</v>
       </c>
       <c r="N15">
-        <v>0.6405784177945364</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.237669344448079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.249165379621871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.963363433227528</v>
+        <v>1.49286686698369</v>
       </c>
       <c r="C16">
-        <v>0.559568924149886</v>
+        <v>0.2647333234793905</v>
       </c>
       <c r="D16">
-        <v>0.05397689098353453</v>
+        <v>0.164430702348028</v>
       </c>
       <c r="E16">
-        <v>0.04121220763282274</v>
+        <v>0.05788953829492272</v>
       </c>
       <c r="F16">
-        <v>0.7782778003935107</v>
+        <v>0.5666351635297318</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622014896796884</v>
       </c>
       <c r="I16">
-        <v>0.3044890843858994</v>
+        <v>0.001973463370948281</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2506232000765518</v>
       </c>
       <c r="L16">
-        <v>0.4766257908955964</v>
+        <v>0.03831537333288004</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.659120396516698</v>
       </c>
       <c r="N16">
-        <v>0.6468080439814372</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.126240428637061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.262507471041658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.797976123041963</v>
+        <v>1.429464871809103</v>
       </c>
       <c r="C17">
-        <v>0.5402342098370809</v>
+        <v>0.2587113622819004</v>
       </c>
       <c r="D17">
-        <v>0.05214978980838225</v>
+        <v>0.1734966190203835</v>
       </c>
       <c r="E17">
-        <v>0.04073776869250345</v>
+        <v>0.07014446656361528</v>
       </c>
       <c r="F17">
-        <v>0.7511228662878864</v>
+        <v>0.5966069439048169</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1244351707993872</v>
       </c>
       <c r="I17">
-        <v>0.2999227821419979</v>
+        <v>0.002213277422105975</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2628242816859991</v>
       </c>
       <c r="L17">
-        <v>0.4570833557405081</v>
+        <v>0.04826646554869995</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.596333131546118</v>
       </c>
       <c r="N17">
-        <v>0.6509647334108237</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.059488703763549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.327424727499718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.702994777152298</v>
+        <v>1.39115697935776</v>
       </c>
       <c r="C18">
-        <v>0.5291189128053588</v>
+        <v>0.2592103511739907</v>
       </c>
       <c r="D18">
-        <v>0.05109875856091151</v>
+        <v>0.2000327346488291</v>
       </c>
       <c r="E18">
-        <v>0.04047473938084245</v>
+        <v>0.1007285968238989</v>
       </c>
       <c r="F18">
-        <v>0.7356814604928843</v>
+        <v>0.6624295681729606</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07159029724799382</v>
       </c>
       <c r="I18">
-        <v>0.2974079295283403</v>
+        <v>0.002054239915679545</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2828779326522053</v>
       </c>
       <c r="L18">
-        <v>0.4458923082089399</v>
+        <v>0.07823628720413822</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.564370518230476</v>
       </c>
       <c r="N18">
-        <v>0.65347507422603</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.021657655299663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.453253249675058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.670859349491593</v>
+        <v>1.37368892198225</v>
       </c>
       <c r="C19">
-        <v>0.525356288358779</v>
+        <v>0.2679547326628011</v>
       </c>
       <c r="D19">
-        <v>0.05074286803357353</v>
+        <v>0.2418359319288186</v>
       </c>
       <c r="E19">
-        <v>0.04038734389709475</v>
+        <v>0.1516029763750595</v>
       </c>
       <c r="F19">
-        <v>0.7304829039810272</v>
+        <v>0.7539937567477395</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02627986410249861</v>
       </c>
       <c r="I19">
-        <v>0.2965751725132506</v>
+        <v>0.002119459863068052</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3078903065159899</v>
       </c>
       <c r="L19">
-        <v>0.442111385141601</v>
+        <v>0.1372407413039625</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.562015573432603</v>
       </c>
       <c r="N19">
-        <v>0.654345228260155</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.008942827448493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.618978754680782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.815566562242395</v>
+        <v>1.419028331325535</v>
       </c>
       <c r="C20">
-        <v>0.5422918222739668</v>
+        <v>0.2942939153828945</v>
       </c>
       <c r="D20">
-        <v>0.05234429974671428</v>
+        <v>0.3238811115524101</v>
       </c>
       <c r="E20">
-        <v>0.04078724612496032</v>
+        <v>0.2567730570102427</v>
       </c>
       <c r="F20">
-        <v>0.7539949972268687</v>
+        <v>0.920326779028187</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001707053888684307</v>
       </c>
       <c r="I20">
-        <v>0.3003972229344427</v>
+        <v>0.00186100655396082</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3486626146939145</v>
       </c>
       <c r="L20">
-        <v>0.4591585166360375</v>
+        <v>0.2738280173133916</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.638174113396531</v>
       </c>
       <c r="N20">
-        <v>0.6505097970044815</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.066535684774607</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.905659926284187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.303594889303383</v>
+        <v>1.595707260207718</v>
       </c>
       <c r="C21">
-        <v>0.5992683573460624</v>
+        <v>0.3310165271035714</v>
       </c>
       <c r="D21">
-        <v>0.05772385610985964</v>
+        <v>0.3688295241694277</v>
       </c>
       <c r="E21">
-        <v>0.04225096751715007</v>
+        <v>0.2957589794962701</v>
       </c>
       <c r="F21">
-        <v>0.835175159742704</v>
+        <v>0.9840491762001164</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0006480459002080607</v>
       </c>
       <c r="I21">
-        <v>0.3146046885254137</v>
+        <v>0.001667701670087673</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3506439441306952</v>
       </c>
       <c r="L21">
-        <v>0.5170446173166852</v>
+        <v>0.3176718469092208</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.842418544566243</v>
       </c>
       <c r="N21">
-        <v>0.6390766341535326</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.266957806775025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.98395145051046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.624147590946222</v>
+        <v>1.71293771390404</v>
       </c>
       <c r="C22">
-        <v>0.6365845717311913</v>
+        <v>0.3524407863372403</v>
       </c>
       <c r="D22">
-        <v>0.06124018641589402</v>
+        <v>0.3940471750867403</v>
       </c>
       <c r="E22">
-        <v>0.04330262208314473</v>
+        <v>0.3158748225563954</v>
       </c>
       <c r="F22">
-        <v>0.8900065597102724</v>
+        <v>1.021432020614867</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001325806474494096</v>
       </c>
       <c r="I22">
-        <v>0.3249854807555508</v>
+        <v>0.001499249333597241</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3517522259803094</v>
       </c>
       <c r="L22">
-        <v>0.5553822538551287</v>
+        <v>0.3391362835725715</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.973734943065693</v>
       </c>
       <c r="N22">
-        <v>0.6327469941359709</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.403557283392217</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.030739261543289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.452900811767847</v>
+        <v>1.651716492798073</v>
       </c>
       <c r="C23">
-        <v>0.6166594866292314</v>
+        <v>0.3390327998515659</v>
       </c>
       <c r="D23">
-        <v>0.05936332713269366</v>
+        <v>0.3799461217370492</v>
       </c>
       <c r="E23">
-        <v>0.04273227329650808</v>
+        <v>0.3049809094890534</v>
       </c>
       <c r="F23">
-        <v>0.8605696495339714</v>
+        <v>1.004066691794279</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0009380647559376065</v>
       </c>
       <c r="I23">
-        <v>0.3193396767007926</v>
+        <v>0.001259838399668922</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3527039740493834</v>
       </c>
       <c r="L23">
-        <v>0.534871059765095</v>
+        <v>0.3277916794885698</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.901989221983968</v>
       </c>
       <c r="N23">
-        <v>0.6360167465118636</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.330107675865889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.012736067292309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.807613610203816</v>
+        <v>1.417686858912049</v>
       </c>
       <c r="C24">
-        <v>0.5413615744894287</v>
+        <v>0.291908847151177</v>
       </c>
       <c r="D24">
-        <v>0.0522563637103346</v>
+        <v>0.3278144143686603</v>
       </c>
       <c r="E24">
-        <v>0.04076484714363815</v>
+        <v>0.2641162967814381</v>
       </c>
       <c r="F24">
-        <v>0.752695978412774</v>
+        <v>0.9355154412673983</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>6.679576221269024E-05</v>
       </c>
       <c r="I24">
-        <v>0.3001823855596868</v>
+        <v>0.001357529446647909</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3544477093612137</v>
       </c>
       <c r="L24">
-        <v>0.4582201995762603</v>
+        <v>0.2847517570156839</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.633550500177961</v>
       </c>
       <c r="N24">
-        <v>0.650715098944211</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.063348052324983</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.937182591714077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.116960708677595</v>
+        <v>1.165158136661972</v>
       </c>
       <c r="C25">
-        <v>0.4603372308880864</v>
+        <v>0.2418761210498985</v>
       </c>
       <c r="D25">
-        <v>0.0445845240916185</v>
+        <v>0.2719950946869005</v>
       </c>
       <c r="E25">
-        <v>0.03901574835236055</v>
+        <v>0.2202719085591411</v>
       </c>
       <c r="F25">
-        <v>0.6430208461302271</v>
+        <v>0.864615840685623</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002934085516133056</v>
       </c>
       <c r="I25">
-        <v>0.2837323320781309</v>
+        <v>0.002502976670450074</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3577603914958587</v>
       </c>
       <c r="L25">
-        <v>0.3773888719464367</v>
+        <v>0.2384927537992212</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.344908102418486</v>
       </c>
       <c r="N25">
-        <v>0.6710999325978761</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.796820879969715</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.864226311630233</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_20/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.982084157988254</v>
+        <v>0.972196331326785</v>
       </c>
       <c r="C2">
-        <v>0.2009574294844612</v>
+        <v>0.2207736017007988</v>
       </c>
       <c r="D2">
-        <v>0.2296534259886869</v>
+        <v>0.2401902423668503</v>
       </c>
       <c r="E2">
-        <v>0.1877526620511105</v>
+        <v>0.1917386819497082</v>
       </c>
       <c r="F2">
-        <v>0.8212007675765562</v>
+        <v>0.7710935909544148</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001341057390324973</v>
+        <v>0.001002095353752397</v>
       </c>
       <c r="I2">
-        <v>0.003384938925326431</v>
+        <v>0.002241317356821426</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3652511777956988</v>
+        <v>0.3237981567826971</v>
       </c>
       <c r="L2">
-        <v>0.204765673522104</v>
+        <v>0.1575842336319546</v>
       </c>
       <c r="M2">
-        <v>1.128891389677449</v>
+        <v>0.09078136293989658</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2053546635303363</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.154511650508709</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.834715058189758</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.683103422246376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8558279251633962</v>
+        <v>0.8497929665208517</v>
       </c>
       <c r="C3">
-        <v>0.1761789838103738</v>
+        <v>0.1900204128746594</v>
       </c>
       <c r="D3">
-        <v>0.2019511328226713</v>
+        <v>0.2107597871965794</v>
       </c>
       <c r="E3">
-        <v>0.165959841585277</v>
+        <v>0.1695807654677282</v>
       </c>
       <c r="F3">
-        <v>0.7892788911560302</v>
+        <v>0.745118573226847</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002553199775955362</v>
+        <v>0.002033220536923896</v>
       </c>
       <c r="I3">
-        <v>0.00480861348734507</v>
+        <v>0.003219150318472419</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3687101832176332</v>
+        <v>0.3296015836558652</v>
       </c>
       <c r="L3">
-        <v>0.181734425907301</v>
+        <v>0.162925496982286</v>
       </c>
       <c r="M3">
-        <v>0.9848145797133157</v>
+        <v>0.09121906155940529</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1827184226826901</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.00548633411492</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.808186681885459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.670863231636503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7780578599809758</v>
+        <v>0.7742978663361271</v>
       </c>
       <c r="C4">
-        <v>0.1611571104081975</v>
+        <v>0.1714612676274072</v>
       </c>
       <c r="D4">
-        <v>0.185014501743197</v>
+        <v>0.1927901809324482</v>
       </c>
       <c r="E4">
-        <v>0.1525924046396341</v>
+        <v>0.1559936536491087</v>
       </c>
       <c r="F4">
-        <v>0.7701293480848292</v>
+        <v>0.7295097911124344</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.003527436586889476</v>
+        <v>0.002878883617090322</v>
       </c>
       <c r="I4">
-        <v>0.005891266189231636</v>
+        <v>0.003995043761713557</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.371059324287792</v>
+        <v>0.3333268412657162</v>
       </c>
       <c r="L4">
-        <v>0.1675695930009695</v>
+        <v>0.166317830351673</v>
       </c>
       <c r="M4">
-        <v>0.8963982757552174</v>
+        <v>0.09200606810937373</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1687883934606376</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9140744689119344</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.793251968680067</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.664404670702979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7459734738594932</v>
+        <v>0.7431310256244217</v>
       </c>
       <c r="C5">
-        <v>0.1555520539830297</v>
+        <v>0.1644591586247088</v>
       </c>
       <c r="D5">
-        <v>0.178283559735732</v>
+        <v>0.1856419972882009</v>
       </c>
       <c r="E5">
-        <v>0.147183447832667</v>
+        <v>0.1504951579986162</v>
       </c>
       <c r="F5">
-        <v>0.7617489437941174</v>
+        <v>0.7225895418049362</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.003981620117765927</v>
+        <v>0.003276257480111733</v>
       </c>
       <c r="I5">
-        <v>0.006462409847040274</v>
+        <v>0.004444554356597408</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3716520240589141</v>
+        <v>0.3345123175467926</v>
       </c>
       <c r="L5">
-        <v>0.1617603542054127</v>
+        <v>0.1675364067658762</v>
       </c>
       <c r="M5">
-        <v>0.8607700560664853</v>
+        <v>0.09236838907832379</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1630740251035547</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8772256480487215</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.785621066720324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.660303630658035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7402419344986981</v>
+        <v>0.7375657801274826</v>
       </c>
       <c r="C6">
-        <v>0.1552031280014745</v>
+        <v>0.1638951122310743</v>
       </c>
       <c r="D6">
-        <v>0.1773562462925184</v>
+        <v>0.1846416577446632</v>
       </c>
       <c r="E6">
-        <v>0.1463302101142396</v>
+        <v>0.1496255974850982</v>
       </c>
       <c r="F6">
-        <v>0.7595270585183229</v>
+        <v>0.72066322132018</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.004062484182454806</v>
+        <v>0.003347177761446885</v>
       </c>
       <c r="I6">
-        <v>0.00666491058643448</v>
+        <v>0.004641762536691019</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3712419135489</v>
+        <v>0.3342583187945323</v>
       </c>
       <c r="L6">
-        <v>0.1607593792560422</v>
+        <v>0.1675069599508028</v>
       </c>
       <c r="M6">
-        <v>0.8553412477575932</v>
+        <v>0.09232860436106094</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1620898929720198</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8715808651519978</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.78208721375384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.65753474168207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7765294029272809</v>
+        <v>0.7728243882320385</v>
       </c>
       <c r="C7">
-        <v>0.1626656844629082</v>
+        <v>0.1729967853048038</v>
       </c>
       <c r="D7">
-        <v>0.1854419207409848</v>
+        <v>0.193200898078274</v>
       </c>
       <c r="E7">
-        <v>0.1526422869695416</v>
+        <v>0.1560381719620878</v>
       </c>
       <c r="F7">
-        <v>0.767732640345983</v>
+        <v>0.7272860700811208</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.003538713071257638</v>
+        <v>0.002888730187500244</v>
       </c>
       <c r="I7">
-        <v>0.006168302482479682</v>
+        <v>0.004310115098755674</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.3696720581285575</v>
+        <v>0.3321135422031531</v>
       </c>
       <c r="L7">
-        <v>0.1673933346394136</v>
+        <v>0.1657181936438583</v>
       </c>
       <c r="M7">
-        <v>0.8972517018227961</v>
+        <v>0.09170077084246664</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.168616758260228</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9148736525875734</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.786913018550706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.658628789362396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9371341928361403</v>
+        <v>0.9286543543894936</v>
       </c>
       <c r="C8">
-        <v>0.1944853220411034</v>
+        <v>0.2122950504545287</v>
       </c>
       <c r="D8">
-        <v>0.2207755776478564</v>
+        <v>0.2306974906892094</v>
       </c>
       <c r="E8">
-        <v>0.1803987296585987</v>
+        <v>0.1842526382895642</v>
       </c>
       <c r="F8">
-        <v>0.8070863021368098</v>
+        <v>0.7592703646228145</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.001714448973009874</v>
+        <v>0.001316068164039841</v>
       </c>
       <c r="I8">
-        <v>0.004153890173886232</v>
+        <v>0.002913731149625676</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3645676766091022</v>
+        <v>0.3241790444109576</v>
       </c>
       <c r="L8">
-        <v>0.1966984722073377</v>
+        <v>0.1586786171560277</v>
       </c>
       <c r="M8">
-        <v>1.080979245939091</v>
+        <v>0.09035358453202669</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.197430126747264</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.104837046938201</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.817079561893749</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.671197632579052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.252279257263325</v>
+        <v>1.233591634060502</v>
       </c>
       <c r="C9">
-        <v>0.2557223140981506</v>
+        <v>0.2891544531082673</v>
       </c>
       <c r="D9">
-        <v>0.2898047525679175</v>
+        <v>0.3042066050564216</v>
       </c>
       <c r="E9">
-        <v>0.2347914506357753</v>
+        <v>0.2395815821731304</v>
       </c>
       <c r="F9">
-        <v>0.892181432486673</v>
+        <v>0.8287148065785175</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.036542654881295E-05</v>
+        <v>1.936036246852346E-05</v>
       </c>
       <c r="I9">
-        <v>0.001552123290129437</v>
+        <v>0.001180005534904716</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.3588980535624771</v>
+        <v>0.3121123128632952</v>
       </c>
       <c r="L9">
-        <v>0.2542382075579042</v>
+        <v>0.1467248821168781</v>
       </c>
       <c r="M9">
-        <v>1.439607185917367</v>
+        <v>0.092524449719944</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2539300428837663</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.476060717647385</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.898733100242168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.714912374606541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.483101046651512</v>
+        <v>1.456874412488247</v>
       </c>
       <c r="C10">
-        <v>0.3013214781513227</v>
+        <v>0.3461202098285128</v>
       </c>
       <c r="D10">
-        <v>0.3342344947551652</v>
+        <v>0.3516508668449205</v>
       </c>
       <c r="E10">
-        <v>0.264676148688153</v>
+        <v>0.2700159321951858</v>
       </c>
       <c r="F10">
-        <v>0.9409552808676693</v>
+        <v>0.8671285329652179</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0003550797830027541</v>
+        <v>0.000448306921938979</v>
       </c>
       <c r="I10">
-        <v>0.0009961541428546994</v>
+        <v>0.001083243981893744</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.351024895559874</v>
+        <v>0.3003920666008533</v>
       </c>
       <c r="L10">
-        <v>0.2820413229537451</v>
+        <v>0.137178213147461</v>
       </c>
       <c r="M10">
-        <v>1.70328089290328</v>
+        <v>0.09517179168065937</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2810073456346771</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.74850375107934</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.936076597748155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.727556689828788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.591971107375144</v>
+        <v>1.56638213565563</v>
       </c>
       <c r="C11">
-        <v>0.3119260122576293</v>
+        <v>0.354601882921628</v>
       </c>
       <c r="D11">
-        <v>0.2955143988239115</v>
+        <v>0.310876302249099</v>
       </c>
       <c r="E11">
-        <v>0.1956783367631445</v>
+        <v>0.2000350974079765</v>
       </c>
       <c r="F11">
-        <v>0.8313047419060382</v>
+        <v>0.7666736330806003</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01888834426677732</v>
+        <v>0.01896788644732439</v>
       </c>
       <c r="I11">
-        <v>0.001454802258598065</v>
+        <v>0.001739028229295947</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.3104316104867131</v>
+        <v>0.2672089087766167</v>
       </c>
       <c r="L11">
-        <v>0.183803117994735</v>
+        <v>0.1236159883386865</v>
       </c>
       <c r="M11">
-        <v>1.812463513328083</v>
+        <v>0.08502478877411335</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1831837781144046</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.856292779118945</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.714953528303823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.532889879019763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.63728126807186</v>
+        <v>1.61392051583033</v>
       </c>
       <c r="C12">
-        <v>0.3084399547414307</v>
+        <v>0.3466851554626942</v>
       </c>
       <c r="D12">
-        <v>0.2550376607447475</v>
+        <v>0.268172513686693</v>
       </c>
       <c r="E12">
-        <v>0.1406385536651342</v>
+        <v>0.1441398432095511</v>
       </c>
       <c r="F12">
-        <v>0.7372696686370546</v>
+        <v>0.6817160586329152</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05749336276995365</v>
+        <v>0.05755402450304814</v>
       </c>
       <c r="I12">
-        <v>0.001446067323112921</v>
+        <v>0.001744778705558225</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2822076437639964</v>
+        <v>0.2452173671382809</v>
       </c>
       <c r="L12">
-        <v>0.1153845665267923</v>
+        <v>0.1157388722108159</v>
       </c>
       <c r="M12">
-        <v>1.846404973509294</v>
+        <v>0.0768552962120701</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1152021150682359</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.887090349870562</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.539572372222139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.382437723349838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.634110382145963</v>
+        <v>1.614417630239188</v>
       </c>
       <c r="C13">
-        <v>0.2964562146433707</v>
+        <v>0.3284438102261902</v>
       </c>
       <c r="D13">
-        <v>0.2119521769012209</v>
+        <v>0.2226394112335299</v>
       </c>
       <c r="E13">
-        <v>0.09359147972632798</v>
+        <v>0.0962967017840306</v>
       </c>
       <c r="F13">
-        <v>0.646330279329824</v>
+        <v>0.6003741332737391</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1131585267488902</v>
+        <v>0.113190619366776</v>
       </c>
       <c r="I13">
-        <v>0.001428482166753398</v>
+        <v>0.001677976037326445</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2595528629972641</v>
+        <v>0.2284706486242118</v>
       </c>
       <c r="L13">
-        <v>0.06593706656745368</v>
+        <v>0.1105082046448898</v>
       </c>
       <c r="M13">
-        <v>1.826191745118479</v>
+        <v>0.06927255965440793</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06619999583931246</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.862174774438074</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.37914565135064</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.247736119342136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.609570835386478</v>
+        <v>1.593097419375255</v>
       </c>
       <c r="C14">
-        <v>0.2847670759726384</v>
+        <v>0.3116354439354723</v>
       </c>
       <c r="D14">
-        <v>0.18136042817207</v>
+        <v>0.1902903194465893</v>
       </c>
       <c r="E14">
-        <v>0.06587102302932735</v>
+        <v>0.0680688569776926</v>
       </c>
       <c r="F14">
-        <v>0.5847817353792095</v>
+        <v>0.5455845905919858</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1624623360287245</v>
+        <v>0.1624684678695303</v>
       </c>
       <c r="I14">
-        <v>0.00151262226933202</v>
+        <v>0.001710324208519687</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2463039194963628</v>
+        <v>0.2190982817971019</v>
       </c>
       <c r="L14">
-        <v>0.04281387364448186</v>
+        <v>0.1078485625691528</v>
       </c>
       <c r="M14">
-        <v>1.787988705121251</v>
+        <v>0.06441732537207301</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0433647341094332</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.819976671616132</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.274298771498664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.160790581859402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.592717405232492</v>
+        <v>1.577324771533455</v>
       </c>
       <c r="C15">
-        <v>0.2807791820719956</v>
+        <v>0.3060551784546703</v>
       </c>
       <c r="D15">
-        <v>0.1732662488867334</v>
+        <v>0.1817115568000389</v>
       </c>
       <c r="E15">
-        <v>0.0596526292136339</v>
+        <v>0.06173132625649203</v>
       </c>
       <c r="F15">
-        <v>0.5692514438393061</v>
+        <v>0.5318946965561935</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1749598572868507</v>
+        <v>0.1749541304392039</v>
       </c>
       <c r="I15">
-        <v>0.001660022187931709</v>
+        <v>0.001850362239282255</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.243653962665439</v>
+        <v>0.2174163289350606</v>
       </c>
       <c r="L15">
-        <v>0.03863748841162717</v>
+        <v>0.1074766517989829</v>
       </c>
       <c r="M15">
-        <v>1.767753106674377</v>
+        <v>0.06326810318614662</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03926315720397078</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.798450051501419</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.249165379621871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.140460259782188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.49286686698369</v>
+        <v>1.479981985444624</v>
       </c>
       <c r="C16">
-        <v>0.2647333234793905</v>
+        <v>0.2866305793852746</v>
       </c>
       <c r="D16">
-        <v>0.164430702348028</v>
+        <v>0.1722427959553414</v>
       </c>
       <c r="E16">
-        <v>0.05788953829492272</v>
+        <v>0.05994751417672717</v>
       </c>
       <c r="F16">
-        <v>0.5666351635297318</v>
+        <v>0.531193803403248</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1622014896796884</v>
+        <v>0.1621321416440793</v>
       </c>
       <c r="I16">
-        <v>0.001973463370948281</v>
+        <v>0.002023360831894472</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2506232000765518</v>
+        <v>0.2245259504523549</v>
       </c>
       <c r="L16">
-        <v>0.03831537333288004</v>
+        <v>0.1106841931199112</v>
       </c>
       <c r="M16">
-        <v>1.659120396516698</v>
+        <v>0.06416418803911839</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03905086451293371</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.687084061143395</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.262507471041658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.157844874868047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.429464871809103</v>
+        <v>1.416780699498929</v>
       </c>
       <c r="C17">
-        <v>0.2587113622819004</v>
+        <v>0.2807044239048082</v>
       </c>
       <c r="D17">
-        <v>0.1734966190203835</v>
+        <v>0.181705427934304</v>
       </c>
       <c r="E17">
-        <v>0.07014446656361528</v>
+        <v>0.07243490276253439</v>
       </c>
       <c r="F17">
-        <v>0.5966069439048169</v>
+        <v>0.559258492464167</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1244351707993872</v>
+        <v>0.1243291282955994</v>
       </c>
       <c r="I17">
-        <v>0.002213277422105975</v>
+        <v>0.002181278589596047</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.2628242816859991</v>
+        <v>0.2349230261719981</v>
       </c>
       <c r="L17">
-        <v>0.04826646554869995</v>
+        <v>0.1148601150401491</v>
       </c>
       <c r="M17">
-        <v>1.596333131546118</v>
+        <v>0.067203451739271</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04896400438487802</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.62431667830441</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.327424727499718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.216899037781943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.39115697935776</v>
+        <v>1.376757606442936</v>
       </c>
       <c r="C18">
-        <v>0.2592103511739907</v>
+        <v>0.2842367638178587</v>
       </c>
       <c r="D18">
-        <v>0.2000327346488291</v>
+        <v>0.2096504444664333</v>
       </c>
       <c r="E18">
-        <v>0.1007285968238989</v>
+        <v>0.1035436211078782</v>
       </c>
       <c r="F18">
-        <v>0.6624295681729606</v>
+        <v>0.6192442587190499</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07159029724799382</v>
+        <v>0.07148258126553486</v>
       </c>
       <c r="I18">
-        <v>0.002054239915679545</v>
+        <v>0.001946996424870839</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.2828779326522053</v>
+        <v>0.2509162462951871</v>
       </c>
       <c r="L18">
-        <v>0.07823628720413822</v>
+        <v>0.1210596819336924</v>
       </c>
       <c r="M18">
-        <v>1.564370518230476</v>
+        <v>0.07277496973009612</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07873390408492043</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.59471988231013</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.453253249675058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.326441072450578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.37368892198225</v>
+        <v>1.356313642289336</v>
       </c>
       <c r="C19">
-        <v>0.2679547326628011</v>
+        <v>0.2983188299154165</v>
       </c>
       <c r="D19">
-        <v>0.2418359319288186</v>
+        <v>0.253716187199359</v>
       </c>
       <c r="E19">
-        <v>0.1516029763750595</v>
+        <v>0.1552164163723937</v>
       </c>
       <c r="F19">
-        <v>0.7539937567477395</v>
+        <v>0.7018420746963443</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02627986410249861</v>
+        <v>0.02621129996667548</v>
       </c>
       <c r="I19">
-        <v>0.002119459863068052</v>
+        <v>0.002062430481247546</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.3078903065159899</v>
+        <v>0.2701448341192432</v>
       </c>
       <c r="L19">
-        <v>0.1372407413039625</v>
+        <v>0.1283675331484524</v>
       </c>
       <c r="M19">
-        <v>1.562015573432603</v>
+        <v>0.07991264407348453</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1373605286416151</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.596318715341226</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.618978754680782</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.467821189653705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.419028331325535</v>
+        <v>1.394998946099577</v>
       </c>
       <c r="C20">
-        <v>0.2942939153828945</v>
+        <v>0.3363050495667324</v>
       </c>
       <c r="D20">
-        <v>0.3238811115524101</v>
+        <v>0.3404576979807246</v>
       </c>
       <c r="E20">
-        <v>0.2567730570102427</v>
+        <v>0.2619506964192269</v>
       </c>
       <c r="F20">
-        <v>0.920326779028187</v>
+        <v>0.849894001621422</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0001707053888684307</v>
+        <v>0.0002318585529370587</v>
       </c>
       <c r="I20">
-        <v>0.00186100655396082</v>
+        <v>0.001992762508299606</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.3486626146939145</v>
+        <v>0.2997710212610514</v>
       </c>
       <c r="L20">
-        <v>0.2738280173133916</v>
+        <v>0.1383076602395388</v>
       </c>
       <c r="M20">
-        <v>1.638174113396531</v>
+        <v>0.09290059243026505</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2730031088299398</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.680959434502853</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.905659926284187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.705887991504056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.595707260207718</v>
+        <v>1.564969629947427</v>
       </c>
       <c r="C21">
-        <v>0.3310165271035714</v>
+        <v>0.3832930016581031</v>
       </c>
       <c r="D21">
-        <v>0.3688295241694277</v>
+        <v>0.3883910750471102</v>
       </c>
       <c r="E21">
-        <v>0.2957589794962701</v>
+        <v>0.3015908807798198</v>
       </c>
       <c r="F21">
-        <v>0.9840491762001164</v>
+        <v>0.902871388172116</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0006480459002080607</v>
+        <v>0.0007979841921750275</v>
       </c>
       <c r="I21">
-        <v>0.001667701670087673</v>
+        <v>0.002065017267338654</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.3506439441306952</v>
+        <v>0.2969514435130307</v>
       </c>
       <c r="L21">
-        <v>0.3176718469092208</v>
+        <v>0.1333837470946104</v>
       </c>
       <c r="M21">
-        <v>1.842418544566243</v>
+        <v>0.09797464686344171</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3161323297934757</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.892913638486164</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.98395145051046</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.757625978957606</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.71293771390404</v>
+        <v>1.677861510439698</v>
       </c>
       <c r="C22">
-        <v>0.3524407863372403</v>
+        <v>0.4109982780901476</v>
       </c>
       <c r="D22">
-        <v>0.3940471750867403</v>
+        <v>0.4153879183448339</v>
       </c>
       <c r="E22">
-        <v>0.3158748225563954</v>
+        <v>0.3220641336378236</v>
       </c>
       <c r="F22">
-        <v>1.021432020614867</v>
+        <v>0.9336770830431078</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.001325806474494096</v>
+        <v>0.001506037916619185</v>
       </c>
       <c r="I22">
-        <v>0.001499249333597241</v>
+        <v>0.001957955360295749</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.3517522259803094</v>
+        <v>0.2950922821452551</v>
       </c>
       <c r="L22">
-        <v>0.3391362835725715</v>
+        <v>0.1301295079009019</v>
       </c>
       <c r="M22">
-        <v>1.973734943065693</v>
+        <v>0.1017557883884201</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3371541974844803</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.029011942051852</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.030739261543289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.788069466113399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.651716492798073</v>
+        <v>1.618902951120504</v>
       </c>
       <c r="C23">
-        <v>0.3390327998515659</v>
+        <v>0.3941073541865023</v>
       </c>
       <c r="D23">
-        <v>0.3799461217370492</v>
+        <v>0.400344234310495</v>
       </c>
       <c r="E23">
-        <v>0.3049809094890534</v>
+        <v>0.3109840163274669</v>
       </c>
       <c r="F23">
-        <v>1.004066691794279</v>
+        <v>0.919604939851439</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0009380647559376065</v>
+        <v>0.001104393585987129</v>
       </c>
       <c r="I23">
-        <v>0.001259838399668922</v>
+        <v>0.001629848624553176</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.3527039740493834</v>
+        <v>0.2973650220430528</v>
       </c>
       <c r="L23">
-        <v>0.3277916794885698</v>
+        <v>0.1322854156153124</v>
       </c>
       <c r="M23">
-        <v>1.901989221983968</v>
+        <v>0.1002437436663719</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3260418393512481</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.954752211371726</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.012736067292309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.778023452989885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.417686858912049</v>
+        <v>1.393308320098555</v>
       </c>
       <c r="C24">
-        <v>0.291908847151177</v>
+        <v>0.3342755144933562</v>
       </c>
       <c r="D24">
-        <v>0.3278144143686603</v>
+        <v>0.3446756533975162</v>
       </c>
       <c r="E24">
-        <v>0.2641162967814381</v>
+        <v>0.2694067784525842</v>
       </c>
       <c r="F24">
-        <v>0.9355154412673983</v>
+        <v>0.8636472328292584</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6.679576221269024E-05</v>
+        <v>0.0001340855721276846</v>
       </c>
       <c r="I24">
-        <v>0.001357529446647909</v>
+        <v>0.001394794259574894</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3544477093612137</v>
+        <v>0.3044108472204776</v>
       </c>
       <c r="L24">
-        <v>0.2847517570156839</v>
+        <v>0.1400563071273098</v>
       </c>
       <c r="M24">
-        <v>1.633550500177961</v>
+        <v>0.09462954652007127</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2838626840782581</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.676747384752588</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.937182591714077</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.733237325874143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.165158136661972</v>
+        <v>1.149408474622618</v>
       </c>
       <c r="C25">
-        <v>0.2418761210498985</v>
+        <v>0.2711035867242799</v>
       </c>
       <c r="D25">
-        <v>0.2719950946869005</v>
+        <v>0.2851454732900578</v>
       </c>
       <c r="E25">
-        <v>0.2202719085591411</v>
+        <v>0.2247990383834448</v>
       </c>
       <c r="F25">
-        <v>0.864615840685623</v>
+        <v>0.8058029473972042</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0002934085516133056</v>
+        <v>0.0001647484764470963</v>
       </c>
       <c r="I25">
-        <v>0.002502976670450074</v>
+        <v>0.002006951069288831</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3577603914958587</v>
+        <v>0.3131280122998348</v>
       </c>
       <c r="L25">
-        <v>0.2384927537992212</v>
+        <v>0.1490166272734523</v>
       </c>
       <c r="M25">
-        <v>1.344908102418486</v>
+        <v>0.09075353490739957</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.238481499061507</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.377864426854984</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.864226311630233</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.692037188025964</v>
       </c>
     </row>
   </sheetData>
